--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,142 +662,155 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>148700</v>
+        <v>169700</v>
       </c>
       <c r="E8" s="3">
-        <v>105700</v>
+        <v>147600</v>
       </c>
       <c r="F8" s="3">
-        <v>73900</v>
+        <v>105000</v>
       </c>
       <c r="G8" s="3">
-        <v>58400</v>
+        <v>73400</v>
       </c>
       <c r="H8" s="3">
-        <v>46400</v>
+        <v>58000</v>
       </c>
       <c r="I8" s="3">
-        <v>46600</v>
+        <v>46100</v>
       </c>
       <c r="J8" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K8" s="3">
         <v>41400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>74800</v>
+        <v>87000</v>
       </c>
       <c r="E9" s="3">
-        <v>50100</v>
+        <v>74300</v>
       </c>
       <c r="F9" s="3">
-        <v>31200</v>
+        <v>49800</v>
       </c>
       <c r="G9" s="3">
-        <v>23300</v>
+        <v>31000</v>
       </c>
       <c r="H9" s="3">
-        <v>20300</v>
+        <v>23100</v>
       </c>
       <c r="I9" s="3">
-        <v>17400</v>
+        <v>20100</v>
       </c>
       <c r="J9" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K9" s="3">
         <v>15000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>73800</v>
+        <v>82700</v>
       </c>
       <c r="E10" s="3">
-        <v>55600</v>
+        <v>73300</v>
       </c>
       <c r="F10" s="3">
-        <v>42600</v>
+        <v>55200</v>
       </c>
       <c r="G10" s="3">
-        <v>35100</v>
+        <v>42300</v>
       </c>
       <c r="H10" s="3">
-        <v>26200</v>
+        <v>34800</v>
       </c>
       <c r="I10" s="3">
-        <v>29100</v>
+        <v>26000</v>
       </c>
       <c r="J10" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K10" s="3">
         <v>26400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +822,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28500</v>
+        <v>38300</v>
       </c>
       <c r="E12" s="3">
-        <v>25400</v>
+        <v>28300</v>
       </c>
       <c r="F12" s="3">
-        <v>21100</v>
+        <v>25200</v>
       </c>
       <c r="G12" s="3">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="H12" s="3">
-        <v>15200</v>
+        <v>16400</v>
       </c>
       <c r="I12" s="3">
-        <v>13000</v>
+        <v>15100</v>
       </c>
       <c r="J12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K12" s="3">
         <v>10400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,66 +884,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1400</v>
       </c>
-      <c r="I14" s="3">
-        <v>6600</v>
-      </c>
       <c r="J14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K14" s="3">
         <v>4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>25000</v>
+        <v>32900</v>
       </c>
       <c r="E15" s="3">
-        <v>19800</v>
+        <v>24800</v>
       </c>
       <c r="F15" s="3">
-        <v>12400</v>
+        <v>19700</v>
       </c>
       <c r="G15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H15" s="3">
         <v>7300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7200</v>
       </c>
       <c r="I15" s="3">
         <v>7200</v>
       </c>
       <c r="J15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K15" s="3">
         <v>4100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +961,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>214300</v>
+        <v>265000</v>
       </c>
       <c r="E17" s="3">
-        <v>161000</v>
+        <v>212800</v>
       </c>
       <c r="F17" s="3">
-        <v>131100</v>
+        <v>159900</v>
       </c>
       <c r="G17" s="3">
-        <v>84800</v>
+        <v>130200</v>
       </c>
       <c r="H17" s="3">
-        <v>73800</v>
+        <v>84200</v>
       </c>
       <c r="I17" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="J17" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K17" s="3">
         <v>62500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-65600</v>
+        <v>-95300</v>
       </c>
       <c r="E18" s="3">
-        <v>-55300</v>
+        <v>-65200</v>
       </c>
       <c r="F18" s="3">
-        <v>-57200</v>
+        <v>-54900</v>
       </c>
       <c r="G18" s="3">
-        <v>-26500</v>
+        <v>-56800</v>
       </c>
       <c r="H18" s="3">
-        <v>-27400</v>
+        <v>-26300</v>
       </c>
       <c r="I18" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="J18" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-21100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1039,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-39300</v>
+        <v>-60600</v>
       </c>
       <c r="E21" s="3">
-        <v>-34300</v>
+        <v>-39000</v>
       </c>
       <c r="F21" s="3">
-        <v>-44000</v>
+        <v>-34100</v>
       </c>
       <c r="G21" s="3">
-        <v>-18400</v>
+        <v>-43700</v>
       </c>
       <c r="H21" s="3">
-        <v>-19500</v>
+        <v>-18300</v>
       </c>
       <c r="I21" s="3">
-        <v>-15500</v>
+        <v>-19400</v>
       </c>
       <c r="J21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-16400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3">
         <v>900</v>
       </c>
       <c r="H22" s="3">
+        <v>900</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-65300</v>
+        <v>-94300</v>
       </c>
       <c r="E23" s="3">
-        <v>-55100</v>
+        <v>-64900</v>
       </c>
       <c r="F23" s="3">
-        <v>-57300</v>
+        <v>-54700</v>
       </c>
       <c r="G23" s="3">
-        <v>-26600</v>
+        <v>-56900</v>
       </c>
       <c r="H23" s="3">
-        <v>-27700</v>
+        <v>-26500</v>
       </c>
       <c r="I23" s="3">
-        <v>-26600</v>
+        <v>-27600</v>
       </c>
       <c r="J23" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-20700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1229,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-63300</v>
+        <v>-75300</v>
       </c>
       <c r="E26" s="3">
-        <v>-53900</v>
+        <v>-62800</v>
       </c>
       <c r="F26" s="3">
-        <v>-54700</v>
+        <v>-53600</v>
       </c>
       <c r="G26" s="3">
-        <v>-25000</v>
+        <v>-54300</v>
       </c>
       <c r="H26" s="3">
-        <v>-25800</v>
+        <v>-24800</v>
       </c>
       <c r="I26" s="3">
-        <v>-23900</v>
+        <v>-25600</v>
       </c>
       <c r="J26" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-63300</v>
+        <v>-75300</v>
       </c>
       <c r="E27" s="3">
-        <v>-53900</v>
+        <v>-62800</v>
       </c>
       <c r="F27" s="3">
-        <v>-54700</v>
+        <v>-53600</v>
       </c>
       <c r="G27" s="3">
-        <v>-25000</v>
+        <v>-54300</v>
       </c>
       <c r="H27" s="3">
-        <v>-25800</v>
+        <v>-24800</v>
       </c>
       <c r="I27" s="3">
-        <v>-23900</v>
+        <v>-25600</v>
       </c>
       <c r="J27" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1421,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-63300</v>
+        <v>-75300</v>
       </c>
       <c r="E33" s="3">
-        <v>-53900</v>
+        <v>-62800</v>
       </c>
       <c r="F33" s="3">
-        <v>-54700</v>
+        <v>-53600</v>
       </c>
       <c r="G33" s="3">
-        <v>-25000</v>
+        <v>-54300</v>
       </c>
       <c r="H33" s="3">
-        <v>-25800</v>
+        <v>-24800</v>
       </c>
       <c r="I33" s="3">
-        <v>-23900</v>
+        <v>-25600</v>
       </c>
       <c r="J33" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1517,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-63300</v>
+        <v>-75300</v>
       </c>
       <c r="E35" s="3">
-        <v>-53900</v>
+        <v>-62800</v>
       </c>
       <c r="F35" s="3">
-        <v>-54700</v>
+        <v>-53600</v>
       </c>
       <c r="G35" s="3">
-        <v>-25000</v>
+        <v>-54300</v>
       </c>
       <c r="H35" s="3">
-        <v>-25800</v>
+        <v>-24800</v>
       </c>
       <c r="I35" s="3">
-        <v>-23900</v>
+        <v>-25600</v>
       </c>
       <c r="J35" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,37 +1616,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>774300</v>
+        <v>1503300</v>
       </c>
       <c r="E41" s="3">
-        <v>1035300</v>
+        <v>769000</v>
       </c>
       <c r="F41" s="3">
-        <v>298400</v>
+        <v>1028100</v>
       </c>
       <c r="G41" s="3">
-        <v>658100</v>
+        <v>296300</v>
       </c>
       <c r="H41" s="3">
-        <v>261000</v>
+        <v>653600</v>
       </c>
       <c r="I41" s="3">
-        <v>270600</v>
+        <v>259200</v>
       </c>
       <c r="J41" s="3">
+        <v>268700</v>
+      </c>
+      <c r="K41" s="3">
         <v>162500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1588,124 +1678,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>34400</v>
+        <v>40800</v>
       </c>
       <c r="E43" s="3">
-        <v>31800</v>
+        <v>34100</v>
       </c>
       <c r="F43" s="3">
-        <v>25500</v>
+        <v>31600</v>
       </c>
       <c r="G43" s="3">
+        <v>25300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>14000</v>
-      </c>
       <c r="J43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K43" s="3">
         <v>12900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="E44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>34500</v>
+        <v>24600</v>
       </c>
       <c r="E45" s="3">
-        <v>31000</v>
+        <v>34200</v>
       </c>
       <c r="F45" s="3">
-        <v>31800</v>
+        <v>30800</v>
       </c>
       <c r="G45" s="3">
-        <v>19400</v>
+        <v>31500</v>
       </c>
       <c r="H45" s="3">
-        <v>12200</v>
+        <v>19200</v>
       </c>
       <c r="I45" s="3">
-        <v>13400</v>
+        <v>12100</v>
       </c>
       <c r="J45" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K45" s="3">
         <v>10300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>847500</v>
+        <v>1572400</v>
       </c>
       <c r="E46" s="3">
-        <v>1100000</v>
+        <v>841700</v>
       </c>
       <c r="F46" s="3">
-        <v>357500</v>
+        <v>1092500</v>
       </c>
       <c r="G46" s="3">
-        <v>692000</v>
+        <v>355100</v>
       </c>
       <c r="H46" s="3">
-        <v>287200</v>
+        <v>687200</v>
       </c>
       <c r="I46" s="3">
-        <v>299100</v>
+        <v>285300</v>
       </c>
       <c r="J46" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K46" s="3">
         <v>186200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1733,66 +1838,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>44500</v>
+        <v>47200</v>
       </c>
       <c r="E48" s="3">
-        <v>37900</v>
+        <v>44200</v>
       </c>
       <c r="F48" s="3">
-        <v>38600</v>
+        <v>37600</v>
       </c>
       <c r="G48" s="3">
-        <v>28000</v>
+        <v>38300</v>
       </c>
       <c r="H48" s="3">
-        <v>29500</v>
+        <v>27800</v>
       </c>
       <c r="I48" s="3">
-        <v>30700</v>
+        <v>29300</v>
       </c>
       <c r="J48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K48" s="3">
         <v>27000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2020600</v>
+        <v>2489100</v>
       </c>
       <c r="E49" s="3">
-        <v>1547400</v>
+        <v>2006800</v>
       </c>
       <c r="F49" s="3">
-        <v>1573400</v>
+        <v>1536800</v>
       </c>
       <c r="G49" s="3">
-        <v>274300</v>
+        <v>1562600</v>
       </c>
       <c r="H49" s="3">
-        <v>272000</v>
+        <v>272400</v>
       </c>
       <c r="I49" s="3">
-        <v>268600</v>
+        <v>270100</v>
       </c>
       <c r="J49" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K49" s="3">
         <v>138100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +1966,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>19100</v>
+        <v>21900</v>
       </c>
       <c r="E52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I52" s="3">
         <v>15000</v>
       </c>
-      <c r="F52" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>15100</v>
       </c>
-      <c r="I52" s="3">
-        <v>15200</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2030,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2931700</v>
+        <v>4130600</v>
       </c>
       <c r="E54" s="3">
-        <v>2700300</v>
+        <v>2911600</v>
       </c>
       <c r="F54" s="3">
-        <v>1983800</v>
+        <v>2681800</v>
       </c>
       <c r="G54" s="3">
-        <v>1003000</v>
+        <v>1970200</v>
       </c>
       <c r="H54" s="3">
-        <v>603800</v>
+        <v>996100</v>
       </c>
       <c r="I54" s="3">
-        <v>613600</v>
+        <v>599700</v>
       </c>
       <c r="J54" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K54" s="3">
         <v>356800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2092,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>43700</v>
+        <v>47000</v>
       </c>
       <c r="E57" s="3">
-        <v>28300</v>
+        <v>43400</v>
       </c>
       <c r="F57" s="3">
-        <v>32700</v>
+        <v>28100</v>
       </c>
       <c r="G57" s="3">
-        <v>17400</v>
+        <v>32500</v>
       </c>
       <c r="H57" s="3">
-        <v>11300</v>
+        <v>17300</v>
       </c>
       <c r="I57" s="3">
-        <v>15800</v>
+        <v>11200</v>
       </c>
       <c r="J57" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K57" s="3">
         <v>11600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8500</v>
       </c>
-      <c r="E58" s="3">
-        <v>6600</v>
-      </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="G58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
-        <v>4500</v>
-      </c>
       <c r="I58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>120500</v>
+        <v>128100</v>
       </c>
       <c r="E59" s="3">
-        <v>110600</v>
+        <v>119700</v>
       </c>
       <c r="F59" s="3">
-        <v>111100</v>
+        <v>109800</v>
       </c>
       <c r="G59" s="3">
-        <v>75100</v>
+        <v>110300</v>
       </c>
       <c r="H59" s="3">
-        <v>71200</v>
+        <v>74600</v>
       </c>
       <c r="I59" s="3">
-        <v>70800</v>
+        <v>70700</v>
       </c>
       <c r="J59" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K59" s="3">
         <v>67100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>172700</v>
+        <v>184100</v>
       </c>
       <c r="E60" s="3">
-        <v>145400</v>
+        <v>171500</v>
       </c>
       <c r="F60" s="3">
-        <v>150800</v>
+        <v>144500</v>
       </c>
       <c r="G60" s="3">
-        <v>95600</v>
+        <v>149800</v>
       </c>
       <c r="H60" s="3">
-        <v>87000</v>
+        <v>94900</v>
       </c>
       <c r="I60" s="3">
-        <v>90800</v>
+        <v>86400</v>
       </c>
       <c r="J60" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K60" s="3">
         <v>82800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>68300</v>
+        <v>67300</v>
       </c>
       <c r="E61" s="3">
-        <v>64600</v>
+        <v>67800</v>
       </c>
       <c r="F61" s="3">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="G61" s="3">
-        <v>55900</v>
+        <v>63800</v>
       </c>
       <c r="H61" s="3">
-        <v>55400</v>
+        <v>55500</v>
       </c>
       <c r="I61" s="3">
-        <v>55500</v>
+        <v>55100</v>
       </c>
       <c r="J61" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K61" s="3">
         <v>15800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>18600</v>
+        <v>17300</v>
       </c>
       <c r="E62" s="3">
-        <v>9400</v>
+        <v>18500</v>
       </c>
       <c r="F62" s="3">
-        <v>15100</v>
+        <v>9300</v>
       </c>
       <c r="G62" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="H62" s="3">
-        <v>23200</v>
+        <v>15000</v>
       </c>
       <c r="I62" s="3">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="J62" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K62" s="3">
         <v>11400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2378,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>259600</v>
+        <v>268600</v>
       </c>
       <c r="E66" s="3">
-        <v>219400</v>
+        <v>257800</v>
       </c>
       <c r="F66" s="3">
-        <v>230100</v>
+        <v>217900</v>
       </c>
       <c r="G66" s="3">
-        <v>166600</v>
+        <v>228600</v>
       </c>
       <c r="H66" s="3">
-        <v>165600</v>
+        <v>165500</v>
       </c>
       <c r="I66" s="3">
-        <v>172200</v>
+        <v>164500</v>
       </c>
       <c r="J66" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K66" s="3">
         <v>109900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2552,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-881300</v>
+        <v>-950500</v>
       </c>
       <c r="E72" s="3">
-        <v>-818000</v>
+        <v>-875200</v>
       </c>
       <c r="F72" s="3">
-        <v>-764100</v>
+        <v>-812400</v>
       </c>
       <c r="G72" s="3">
-        <v>-709400</v>
+        <v>-758800</v>
       </c>
       <c r="H72" s="3">
-        <v>-684400</v>
+        <v>-704500</v>
       </c>
       <c r="I72" s="3">
-        <v>-658600</v>
+        <v>-679700</v>
       </c>
       <c r="J72" s="3">
+        <v>-654100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-634700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2680,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>2672100</v>
+        <v>3862000</v>
       </c>
       <c r="E76" s="3">
-        <v>2480900</v>
+        <v>2653800</v>
       </c>
       <c r="F76" s="3">
-        <v>1753700</v>
+        <v>2463900</v>
       </c>
       <c r="G76" s="3">
-        <v>836400</v>
+        <v>1741700</v>
       </c>
       <c r="H76" s="3">
-        <v>438200</v>
+        <v>830700</v>
       </c>
       <c r="I76" s="3">
-        <v>441400</v>
+        <v>435200</v>
       </c>
       <c r="J76" s="3">
+        <v>438400</v>
+      </c>
+      <c r="K76" s="3">
         <v>246800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2744,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-63300</v>
+        <v>-75300</v>
       </c>
       <c r="E81" s="3">
-        <v>-53900</v>
+        <v>-62800</v>
       </c>
       <c r="F81" s="3">
-        <v>-54700</v>
+        <v>-53600</v>
       </c>
       <c r="G81" s="3">
-        <v>-25000</v>
+        <v>-54300</v>
       </c>
       <c r="H81" s="3">
-        <v>-25800</v>
+        <v>-24800</v>
       </c>
       <c r="I81" s="3">
-        <v>-23900</v>
+        <v>-25600</v>
       </c>
       <c r="J81" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +2829,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>25000</v>
+        <v>32900</v>
       </c>
       <c r="E83" s="3">
-        <v>19800</v>
+        <v>24800</v>
       </c>
       <c r="F83" s="3">
-        <v>12400</v>
+        <v>19700</v>
       </c>
       <c r="G83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H83" s="3">
         <v>7300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7200</v>
       </c>
       <c r="I83" s="3">
         <v>7200</v>
       </c>
       <c r="J83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K83" s="3">
         <v>4100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3019,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-18700</v>
+        <v>-16600</v>
       </c>
       <c r="E89" s="3">
-        <v>-31000</v>
+        <v>-18600</v>
       </c>
       <c r="F89" s="3">
-        <v>-69400</v>
+        <v>-30700</v>
       </c>
       <c r="G89" s="3">
-        <v>-9500</v>
+        <v>-69000</v>
       </c>
       <c r="H89" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="I89" s="3">
-        <v>-11400</v>
+        <v>-9400</v>
       </c>
       <c r="J89" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3067,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1700</v>
       </c>
       <c r="J91" s="3">
         <v>-1700</v>
       </c>
       <c r="K91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-245900</v>
+        <v>-264600</v>
       </c>
       <c r="E94" s="3">
+        <v>-244200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-298800</v>
-      </c>
       <c r="G94" s="3">
+        <v>-296700</v>
+      </c>
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-75700</v>
-      </c>
       <c r="J94" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3335,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>1016600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
-        <v>769000</v>
-      </c>
       <c r="F100" s="3">
+        <v>763700</v>
+      </c>
+      <c r="G100" s="3">
         <v>7500</v>
       </c>
-      <c r="G100" s="3">
-        <v>405400</v>
-      </c>
       <c r="H100" s="3">
+        <v>402600</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>197200</v>
-      </c>
       <c r="J100" s="3">
+        <v>195800</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>800</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
       </c>
       <c r="I101" s="3">
+        <v>800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-260900</v>
+        <v>734300</v>
       </c>
       <c r="E102" s="3">
-        <v>736900</v>
+        <v>-259100</v>
       </c>
       <c r="F102" s="3">
-        <v>-359800</v>
+        <v>731800</v>
       </c>
       <c r="G102" s="3">
-        <v>397100</v>
+        <v>-357300</v>
       </c>
       <c r="H102" s="3">
-        <v>-9600</v>
+        <v>394400</v>
       </c>
       <c r="I102" s="3">
-        <v>108100</v>
+        <v>-9500</v>
       </c>
       <c r="J102" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-57900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,155 +662,167 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E8" s="3">
         <v>169700</v>
       </c>
-      <c r="E8" s="3">
-        <v>147600</v>
-      </c>
       <c r="F8" s="3">
+        <v>147700</v>
+      </c>
+      <c r="G8" s="3">
         <v>105000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E9" s="3">
         <v>87000</v>
       </c>
-      <c r="E9" s="3">
-        <v>74300</v>
-      </c>
       <c r="F9" s="3">
+        <v>74400</v>
+      </c>
+      <c r="G9" s="3">
         <v>49800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31000</v>
       </c>
-      <c r="H9" s="3">
-        <v>23100</v>
-      </c>
       <c r="I9" s="3">
-        <v>20100</v>
+        <v>23000</v>
       </c>
       <c r="J9" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K9" s="3">
         <v>17300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E10" s="3">
         <v>82700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>73300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55200</v>
       </c>
-      <c r="G10" s="3">
-        <v>42300</v>
-      </c>
       <c r="H10" s="3">
-        <v>34800</v>
+        <v>42400</v>
       </c>
       <c r="I10" s="3">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="J10" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K10" s="3">
         <v>28900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,40 +835,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E12" s="3">
         <v>38300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
-        <v>16400</v>
-      </c>
       <c r="I12" s="3">
-        <v>15100</v>
+        <v>16200</v>
       </c>
       <c r="J12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K12" s="3">
         <v>12900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,72 +903,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E14" s="3">
         <v>11500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E15" s="3">
         <v>32900</v>
       </c>
-      <c r="E15" s="3">
-        <v>24800</v>
-      </c>
       <c r="F15" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G15" s="3">
         <v>19700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7200</v>
       </c>
       <c r="J15" s="3">
         <v>7200</v>
       </c>
       <c r="K15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L15" s="3">
         <v>4100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,72 +987,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>265000</v>
+        <v>294700</v>
       </c>
       <c r="E17" s="3">
-        <v>212800</v>
+        <v>265100</v>
       </c>
       <c r="F17" s="3">
-        <v>159900</v>
+        <v>212900</v>
       </c>
       <c r="G17" s="3">
-        <v>130200</v>
+        <v>160000</v>
       </c>
       <c r="H17" s="3">
-        <v>84200</v>
+        <v>130300</v>
       </c>
       <c r="I17" s="3">
-        <v>73300</v>
+        <v>84300</v>
       </c>
       <c r="J17" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K17" s="3">
         <v>72300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-95300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-54900</v>
-      </c>
       <c r="G18" s="3">
-        <v>-56800</v>
+        <v>-55000</v>
       </c>
       <c r="H18" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-26300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1040,40 +1072,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>600</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,31 +1117,34 @@
         <v>-60600</v>
       </c>
       <c r="E21" s="3">
-        <v>-39000</v>
+        <v>-60600</v>
       </c>
       <c r="F21" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-34100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-43700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-19400</v>
-      </c>
       <c r="J21" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1113,95 +1152,104 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
       </c>
       <c r="G22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>900</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K22" s="3">
         <v>3800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-94300</v>
+        <v>-98800</v>
       </c>
       <c r="E23" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-64900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-54700</v>
-      </c>
       <c r="G23" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-56900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1232,72 +1280,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-75300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-62800</v>
-      </c>
       <c r="F26" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-53600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-54300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-24800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-75300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-62800</v>
-      </c>
       <c r="F27" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-53600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-54300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-24800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1328,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1392,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,72 +1490,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-75300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-62800</v>
-      </c>
       <c r="F33" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-53600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-54300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-24800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1520,77 +1595,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-75300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-62800</v>
-      </c>
       <c r="F35" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-53600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-54300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-24800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1603,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1617,40 +1702,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1503300</v>
+        <v>1231800</v>
       </c>
       <c r="E41" s="3">
-        <v>769000</v>
+        <v>1503900</v>
       </c>
       <c r="F41" s="3">
-        <v>1028100</v>
+        <v>769300</v>
       </c>
       <c r="G41" s="3">
-        <v>296300</v>
+        <v>1028600</v>
       </c>
       <c r="H41" s="3">
-        <v>653600</v>
+        <v>296500</v>
       </c>
       <c r="I41" s="3">
-        <v>259200</v>
+        <v>653900</v>
       </c>
       <c r="J41" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K41" s="3">
         <v>268700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>162500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1681,136 +1770,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E43" s="3">
         <v>40800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E45" s="3">
         <v>24600</v>
       </c>
-      <c r="E45" s="3">
-        <v>34200</v>
-      </c>
       <c r="F45" s="3">
+        <v>34300</v>
+      </c>
+      <c r="G45" s="3">
         <v>30800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1572400</v>
+        <v>1346900</v>
       </c>
       <c r="E46" s="3">
-        <v>841700</v>
+        <v>1573000</v>
       </c>
       <c r="F46" s="3">
-        <v>1092500</v>
+        <v>842000</v>
       </c>
       <c r="G46" s="3">
-        <v>355100</v>
+        <v>1092900</v>
       </c>
       <c r="H46" s="3">
-        <v>687200</v>
+        <v>355200</v>
       </c>
       <c r="I46" s="3">
-        <v>285300</v>
+        <v>687500</v>
       </c>
       <c r="J46" s="3">
+        <v>285400</v>
+      </c>
+      <c r="K46" s="3">
         <v>297100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>186200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,72 +1945,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>47200</v>
+        <v>55100</v>
       </c>
       <c r="E48" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F48" s="3">
         <v>44200</v>
       </c>
-      <c r="F48" s="3">
-        <v>37600</v>
-      </c>
       <c r="G48" s="3">
+        <v>37700</v>
+      </c>
+      <c r="H48" s="3">
         <v>38300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2489100</v>
+        <v>3235800</v>
       </c>
       <c r="E49" s="3">
-        <v>2006800</v>
+        <v>2490100</v>
       </c>
       <c r="F49" s="3">
-        <v>1536800</v>
+        <v>2007600</v>
       </c>
       <c r="G49" s="3">
-        <v>1562600</v>
+        <v>1537400</v>
       </c>
       <c r="H49" s="3">
-        <v>272400</v>
+        <v>1563200</v>
       </c>
       <c r="I49" s="3">
-        <v>270100</v>
+        <v>272500</v>
       </c>
       <c r="J49" s="3">
+        <v>270200</v>
+      </c>
+      <c r="K49" s="3">
         <v>266800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>138100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1937,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,40 +2085,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E52" s="3">
         <v>21900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2033,40 +2155,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4130600</v>
+        <v>4664500</v>
       </c>
       <c r="E54" s="3">
-        <v>2911600</v>
+        <v>4132200</v>
       </c>
       <c r="F54" s="3">
-        <v>2681800</v>
+        <v>2912700</v>
       </c>
       <c r="G54" s="3">
-        <v>1970200</v>
+        <v>2682800</v>
       </c>
       <c r="H54" s="3">
-        <v>996100</v>
+        <v>1971000</v>
       </c>
       <c r="I54" s="3">
-        <v>599700</v>
+        <v>996500</v>
       </c>
       <c r="J54" s="3">
+        <v>599900</v>
+      </c>
+      <c r="K54" s="3">
         <v>609400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>356800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2079,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2093,200 +2222,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E57" s="3">
         <v>47000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E58" s="3">
         <v>9000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6500</v>
       </c>
-      <c r="G58" s="3">
-        <v>6900</v>
-      </c>
       <c r="H58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>128100</v>
+        <v>134600</v>
       </c>
       <c r="E59" s="3">
+        <v>128200</v>
+      </c>
+      <c r="F59" s="3">
         <v>119700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109800</v>
       </c>
-      <c r="G59" s="3">
-        <v>110300</v>
-      </c>
       <c r="H59" s="3">
+        <v>110400</v>
+      </c>
+      <c r="I59" s="3">
         <v>74600</v>
       </c>
-      <c r="I59" s="3">
-        <v>70700</v>
-      </c>
       <c r="J59" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K59" s="3">
         <v>70300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>184100</v>
+        <v>185600</v>
       </c>
       <c r="E60" s="3">
-        <v>171500</v>
+        <v>184200</v>
       </c>
       <c r="F60" s="3">
+        <v>171600</v>
+      </c>
+      <c r="G60" s="3">
         <v>144500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>149800</v>
       </c>
-      <c r="H60" s="3">
-        <v>94900</v>
-      </c>
       <c r="I60" s="3">
+        <v>95000</v>
+      </c>
+      <c r="J60" s="3">
         <v>86400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E61" s="3">
         <v>67300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>67800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>64100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>63800</v>
       </c>
-      <c r="H61" s="3">
-        <v>55500</v>
-      </c>
       <c r="I61" s="3">
-        <v>55100</v>
+        <v>55600</v>
       </c>
       <c r="J61" s="3">
         <v>55100</v>
       </c>
       <c r="K61" s="3">
+        <v>55100</v>
+      </c>
+      <c r="L61" s="3">
         <v>15800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E62" s="3">
         <v>17300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>15000</v>
       </c>
       <c r="H62" s="3">
         <v>15000</v>
       </c>
       <c r="I62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J62" s="3">
         <v>23000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2317,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2349,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2381,40 +2535,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>268600</v>
+        <v>264900</v>
       </c>
       <c r="E66" s="3">
-        <v>257800</v>
+        <v>268700</v>
       </c>
       <c r="F66" s="3">
-        <v>217900</v>
+        <v>257900</v>
       </c>
       <c r="G66" s="3">
-        <v>228600</v>
+        <v>218000</v>
       </c>
       <c r="H66" s="3">
+        <v>228700</v>
+      </c>
+      <c r="I66" s="3">
         <v>165500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>164500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>171100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2427,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,40 +2725,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-950500</v>
+        <v>-1034300</v>
       </c>
       <c r="E72" s="3">
-        <v>-875200</v>
+        <v>-950900</v>
       </c>
       <c r="F72" s="3">
-        <v>-812400</v>
+        <v>-875600</v>
       </c>
       <c r="G72" s="3">
-        <v>-758800</v>
+        <v>-812700</v>
       </c>
       <c r="H72" s="3">
-        <v>-704500</v>
+        <v>-759100</v>
       </c>
       <c r="I72" s="3">
-        <v>-679700</v>
+        <v>-704800</v>
       </c>
       <c r="J72" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-654100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-634700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2619,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,40 +2865,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3862000</v>
+        <v>4399600</v>
       </c>
       <c r="E76" s="3">
-        <v>2653800</v>
+        <v>3863500</v>
       </c>
       <c r="F76" s="3">
-        <v>2463900</v>
+        <v>2654800</v>
       </c>
       <c r="G76" s="3">
-        <v>1741700</v>
+        <v>2464900</v>
       </c>
       <c r="H76" s="3">
-        <v>830700</v>
+        <v>1742300</v>
       </c>
       <c r="I76" s="3">
-        <v>435200</v>
+        <v>831000</v>
       </c>
       <c r="J76" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K76" s="3">
         <v>438400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>246800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2747,77 +2935,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-75300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-62800</v>
-      </c>
       <c r="F81" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-53600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-54300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-24800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2830,40 +3027,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E83" s="3">
         <v>32900</v>
       </c>
-      <c r="E83" s="3">
-        <v>24800</v>
-      </c>
       <c r="F83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G83" s="3">
         <v>19700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7200</v>
       </c>
       <c r="J83" s="3">
         <v>7200</v>
       </c>
       <c r="K83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L83" s="3">
         <v>4100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2894,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,40 +3235,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-30700</v>
-      </c>
       <c r="G89" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-69000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-9400</v>
       </c>
       <c r="I89" s="3">
         <v>-9400</v>
       </c>
       <c r="J89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3068,40 +3287,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1700</v>
       </c>
       <c r="K91" s="3">
         <v>-1700</v>
       </c>
       <c r="L91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3132,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,40 +3390,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-264600</v>
+        <v>-209300</v>
       </c>
       <c r="E94" s="3">
-        <v>-244200</v>
+        <v>-264700</v>
       </c>
       <c r="F94" s="3">
+        <v>-244300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-296700</v>
-      </c>
       <c r="H94" s="3">
+        <v>-296900</v>
+      </c>
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3210,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3274,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,100 +3580,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1016600</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
-        <v>763700</v>
-      </c>
       <c r="G100" s="3">
+        <v>764000</v>
+      </c>
+      <c r="H100" s="3">
         <v>7500</v>
       </c>
-      <c r="H100" s="3">
-        <v>402600</v>
-      </c>
       <c r="I100" s="3">
+        <v>402800</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>195800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>800</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
       <c r="J101" s="3">
+        <v>800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>734300</v>
+        <v>-272100</v>
       </c>
       <c r="E102" s="3">
-        <v>-259100</v>
+        <v>734600</v>
       </c>
       <c r="F102" s="3">
-        <v>731800</v>
+        <v>-259200</v>
       </c>
       <c r="G102" s="3">
-        <v>-357300</v>
+        <v>732100</v>
       </c>
       <c r="H102" s="3">
-        <v>394400</v>
+        <v>-357400</v>
       </c>
       <c r="I102" s="3">
+        <v>394500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>107400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>194600</v>
+        <v>199200</v>
       </c>
       <c r="E8" s="3">
-        <v>169700</v>
+        <v>173700</v>
       </c>
       <c r="F8" s="3">
-        <v>147700</v>
+        <v>151200</v>
       </c>
       <c r="G8" s="3">
-        <v>105000</v>
+        <v>107500</v>
       </c>
       <c r="H8" s="3">
-        <v>73400</v>
+        <v>75100</v>
       </c>
       <c r="I8" s="3">
-        <v>58000</v>
+        <v>59400</v>
       </c>
       <c r="J8" s="3">
-        <v>46100</v>
+        <v>47200</v>
       </c>
       <c r="K8" s="3">
         <v>46200</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>93900</v>
+        <v>96100</v>
       </c>
       <c r="E9" s="3">
-        <v>87000</v>
+        <v>89100</v>
       </c>
       <c r="F9" s="3">
-        <v>74400</v>
+        <v>76100</v>
       </c>
       <c r="G9" s="3">
-        <v>49800</v>
+        <v>51000</v>
       </c>
       <c r="H9" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="I9" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="J9" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="K9" s="3">
         <v>17300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100700</v>
+        <v>103100</v>
       </c>
       <c r="E10" s="3">
-        <v>82700</v>
+        <v>84700</v>
       </c>
       <c r="F10" s="3">
-        <v>73300</v>
+        <v>75100</v>
       </c>
       <c r="G10" s="3">
-        <v>55200</v>
+        <v>56500</v>
       </c>
       <c r="H10" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="I10" s="3">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="J10" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="K10" s="3">
         <v>28900</v>
@@ -842,25 +842,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>40800</v>
+        <v>41700</v>
       </c>
       <c r="E12" s="3">
-        <v>38300</v>
+        <v>39300</v>
       </c>
       <c r="F12" s="3">
-        <v>28300</v>
+        <v>29000</v>
       </c>
       <c r="G12" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="H12" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="I12" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="J12" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="K12" s="3">
         <v>12900</v>
@@ -912,16 +912,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="E14" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="F14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G14" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H14" s="3">
         <v>2600</v>
@@ -947,25 +947,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>37300</v>
+        <v>38100</v>
       </c>
       <c r="E15" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="F15" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="G15" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="H15" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="I15" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="J15" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="K15" s="3">
         <v>7200</v>
@@ -994,25 +994,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>294700</v>
+        <v>301600</v>
       </c>
       <c r="E17" s="3">
-        <v>265100</v>
+        <v>271300</v>
       </c>
       <c r="F17" s="3">
-        <v>212900</v>
+        <v>217900</v>
       </c>
       <c r="G17" s="3">
-        <v>160000</v>
+        <v>163700</v>
       </c>
       <c r="H17" s="3">
-        <v>130300</v>
+        <v>133300</v>
       </c>
       <c r="I17" s="3">
-        <v>84300</v>
+        <v>86300</v>
       </c>
       <c r="J17" s="3">
-        <v>73400</v>
+        <v>75100</v>
       </c>
       <c r="K17" s="3">
         <v>72300</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-100100</v>
+        <v>-102400</v>
       </c>
       <c r="E18" s="3">
-        <v>-95300</v>
+        <v>-97600</v>
       </c>
       <c r="F18" s="3">
-        <v>-65200</v>
+        <v>-66800</v>
       </c>
       <c r="G18" s="3">
-        <v>-55000</v>
+        <v>-56200</v>
       </c>
       <c r="H18" s="3">
-        <v>-56900</v>
+        <v>-58200</v>
       </c>
       <c r="I18" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="J18" s="3">
-        <v>-27200</v>
+        <v>-27900</v>
       </c>
       <c r="K18" s="3">
         <v>-26100</v>
@@ -1079,10 +1079,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F20" s="3">
         <v>1300</v>
@@ -1114,25 +1114,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-60600</v>
+        <v>-62000</v>
       </c>
       <c r="E21" s="3">
-        <v>-60600</v>
+        <v>-62000</v>
       </c>
       <c r="F21" s="3">
-        <v>-39100</v>
+        <v>-40000</v>
       </c>
       <c r="G21" s="3">
-        <v>-34100</v>
+        <v>-34900</v>
       </c>
       <c r="H21" s="3">
-        <v>-43700</v>
+        <v>-44800</v>
       </c>
       <c r="I21" s="3">
-        <v>-18300</v>
+        <v>-18800</v>
       </c>
       <c r="J21" s="3">
-        <v>-18500</v>
+        <v>-18900</v>
       </c>
       <c r="K21" s="3">
         <v>-15400</v>
@@ -1149,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
@@ -1167,7 +1167,7 @@
         <v>900</v>
       </c>
       <c r="J22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K22" s="3">
         <v>3800</v>
@@ -1184,25 +1184,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-98800</v>
+        <v>-101100</v>
       </c>
       <c r="E23" s="3">
-        <v>-94400</v>
+        <v>-96600</v>
       </c>
       <c r="F23" s="3">
-        <v>-64900</v>
+        <v>-66400</v>
       </c>
       <c r="G23" s="3">
-        <v>-54800</v>
+        <v>-56100</v>
       </c>
       <c r="H23" s="3">
-        <v>-56900</v>
+        <v>-58300</v>
       </c>
       <c r="I23" s="3">
-        <v>-26500</v>
+        <v>-27100</v>
       </c>
       <c r="J23" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="K23" s="3">
         <v>-26400</v>
@@ -1219,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-15300</v>
+        <v>-15700</v>
       </c>
       <c r="E24" s="3">
-        <v>-19100</v>
+        <v>-19500</v>
       </c>
       <c r="F24" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G24" s="3">
         <v>-1200</v>
@@ -1237,7 +1237,7 @@
         <v>-1700</v>
       </c>
       <c r="J24" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K24" s="3">
         <v>-2700</v>
@@ -1289,25 +1289,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-83500</v>
+        <v>-85400</v>
       </c>
       <c r="E26" s="3">
-        <v>-75300</v>
+        <v>-77100</v>
       </c>
       <c r="F26" s="3">
-        <v>-62900</v>
+        <v>-64400</v>
       </c>
       <c r="G26" s="3">
-        <v>-53600</v>
+        <v>-54800</v>
       </c>
       <c r="H26" s="3">
-        <v>-54400</v>
+        <v>-55600</v>
       </c>
       <c r="I26" s="3">
-        <v>-24800</v>
+        <v>-25400</v>
       </c>
       <c r="J26" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="K26" s="3">
         <v>-23700</v>
@@ -1324,25 +1324,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-83500</v>
+        <v>-85400</v>
       </c>
       <c r="E27" s="3">
-        <v>-75300</v>
+        <v>-77100</v>
       </c>
       <c r="F27" s="3">
-        <v>-62900</v>
+        <v>-64400</v>
       </c>
       <c r="G27" s="3">
-        <v>-53600</v>
+        <v>-54800</v>
       </c>
       <c r="H27" s="3">
-        <v>-54400</v>
+        <v>-55600</v>
       </c>
       <c r="I27" s="3">
-        <v>-24800</v>
+        <v>-25400</v>
       </c>
       <c r="J27" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="K27" s="3">
         <v>-23700</v>
@@ -1499,10 +1499,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F32" s="3">
         <v>-1300</v>
@@ -1534,25 +1534,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-83500</v>
+        <v>-85400</v>
       </c>
       <c r="E33" s="3">
-        <v>-75300</v>
+        <v>-77100</v>
       </c>
       <c r="F33" s="3">
-        <v>-62900</v>
+        <v>-64400</v>
       </c>
       <c r="G33" s="3">
-        <v>-53600</v>
+        <v>-54800</v>
       </c>
       <c r="H33" s="3">
-        <v>-54400</v>
+        <v>-55600</v>
       </c>
       <c r="I33" s="3">
-        <v>-24800</v>
+        <v>-25400</v>
       </c>
       <c r="J33" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="K33" s="3">
         <v>-23700</v>
@@ -1604,25 +1604,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-83500</v>
+        <v>-85400</v>
       </c>
       <c r="E35" s="3">
-        <v>-75300</v>
+        <v>-77100</v>
       </c>
       <c r="F35" s="3">
-        <v>-62900</v>
+        <v>-64400</v>
       </c>
       <c r="G35" s="3">
-        <v>-53600</v>
+        <v>-54800</v>
       </c>
       <c r="H35" s="3">
-        <v>-54400</v>
+        <v>-55600</v>
       </c>
       <c r="I35" s="3">
-        <v>-24800</v>
+        <v>-25400</v>
       </c>
       <c r="J35" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="K35" s="3">
         <v>-23700</v>
@@ -1709,25 +1709,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1231800</v>
+        <v>1260900</v>
       </c>
       <c r="E41" s="3">
-        <v>1503900</v>
+        <v>1539400</v>
       </c>
       <c r="F41" s="3">
-        <v>769300</v>
+        <v>787500</v>
       </c>
       <c r="G41" s="3">
-        <v>1028600</v>
+        <v>1052800</v>
       </c>
       <c r="H41" s="3">
-        <v>296500</v>
+        <v>303500</v>
       </c>
       <c r="I41" s="3">
-        <v>653900</v>
+        <v>669300</v>
       </c>
       <c r="J41" s="3">
-        <v>259300</v>
+        <v>265500</v>
       </c>
       <c r="K41" s="3">
         <v>268700</v>
@@ -1779,25 +1779,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>64600</v>
+        <v>66100</v>
       </c>
       <c r="E43" s="3">
-        <v>40800</v>
+        <v>41800</v>
       </c>
       <c r="F43" s="3">
-        <v>34100</v>
+        <v>34900</v>
       </c>
       <c r="G43" s="3">
-        <v>31600</v>
+        <v>32300</v>
       </c>
       <c r="H43" s="3">
-        <v>25300</v>
+        <v>25900</v>
       </c>
       <c r="I43" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="J43" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="K43" s="3">
         <v>13900</v>
@@ -1814,19 +1814,19 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E44" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F44" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H44" s="3">
         <v>2000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1900</v>
       </c>
       <c r="I44" s="3">
         <v>1400</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="E45" s="3">
-        <v>24600</v>
+        <v>25200</v>
       </c>
       <c r="F45" s="3">
-        <v>34300</v>
+        <v>35100</v>
       </c>
       <c r="G45" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="H45" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="I45" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="J45" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="K45" s="3">
         <v>13300</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1346900</v>
+        <v>1378700</v>
       </c>
       <c r="E46" s="3">
-        <v>1573000</v>
+        <v>1610200</v>
       </c>
       <c r="F46" s="3">
-        <v>842000</v>
+        <v>861900</v>
       </c>
       <c r="G46" s="3">
-        <v>1092900</v>
+        <v>1118700</v>
       </c>
       <c r="H46" s="3">
-        <v>355200</v>
+        <v>363600</v>
       </c>
       <c r="I46" s="3">
-        <v>687500</v>
+        <v>703700</v>
       </c>
       <c r="J46" s="3">
-        <v>285400</v>
+        <v>292100</v>
       </c>
       <c r="K46" s="3">
         <v>297100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>55100</v>
+        <v>56400</v>
       </c>
       <c r="E48" s="3">
-        <v>47300</v>
+        <v>48400</v>
       </c>
       <c r="F48" s="3">
-        <v>44200</v>
+        <v>45300</v>
       </c>
       <c r="G48" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="H48" s="3">
-        <v>38300</v>
+        <v>39200</v>
       </c>
       <c r="I48" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="J48" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="K48" s="3">
         <v>30500</v>
@@ -1989,25 +1989,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3235800</v>
+        <v>3312200</v>
       </c>
       <c r="E49" s="3">
-        <v>2490100</v>
+        <v>2548900</v>
       </c>
       <c r="F49" s="3">
-        <v>2007600</v>
+        <v>2055000</v>
       </c>
       <c r="G49" s="3">
-        <v>1537400</v>
+        <v>1573700</v>
       </c>
       <c r="H49" s="3">
-        <v>1563200</v>
+        <v>1600200</v>
       </c>
       <c r="I49" s="3">
-        <v>272500</v>
+        <v>279000</v>
       </c>
       <c r="J49" s="3">
-        <v>270200</v>
+        <v>276600</v>
       </c>
       <c r="K49" s="3">
         <v>266800</v>
@@ -2094,25 +2094,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="E52" s="3">
-        <v>21900</v>
+        <v>22400</v>
       </c>
       <c r="F52" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="G52" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="H52" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="I52" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J52" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="K52" s="3">
         <v>15100</v>
@@ -2164,25 +2164,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4664500</v>
+        <v>4774700</v>
       </c>
       <c r="E54" s="3">
-        <v>4132200</v>
+        <v>4229900</v>
       </c>
       <c r="F54" s="3">
-        <v>2912700</v>
+        <v>2981500</v>
       </c>
       <c r="G54" s="3">
-        <v>2682800</v>
+        <v>2746200</v>
       </c>
       <c r="H54" s="3">
-        <v>1971000</v>
+        <v>2017500</v>
       </c>
       <c r="I54" s="3">
-        <v>996500</v>
+        <v>1020100</v>
       </c>
       <c r="J54" s="3">
-        <v>599900</v>
+        <v>614100</v>
       </c>
       <c r="K54" s="3">
         <v>609400</v>
@@ -2229,25 +2229,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>41400</v>
+        <v>42400</v>
       </c>
       <c r="E57" s="3">
-        <v>47000</v>
+        <v>48100</v>
       </c>
       <c r="F57" s="3">
-        <v>43400</v>
+        <v>44400</v>
       </c>
       <c r="G57" s="3">
-        <v>28100</v>
+        <v>28800</v>
       </c>
       <c r="H57" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="I57" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="J57" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="K57" s="3">
         <v>15700</v>
@@ -2264,25 +2264,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E58" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="F58" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G58" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H58" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K58" s="3">
         <v>4200</v>
@@ -2299,25 +2299,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>134600</v>
+        <v>137800</v>
       </c>
       <c r="E59" s="3">
-        <v>128200</v>
+        <v>131200</v>
       </c>
       <c r="F59" s="3">
-        <v>119700</v>
+        <v>122600</v>
       </c>
       <c r="G59" s="3">
-        <v>109800</v>
+        <v>112400</v>
       </c>
       <c r="H59" s="3">
-        <v>110400</v>
+        <v>113000</v>
       </c>
       <c r="I59" s="3">
-        <v>74600</v>
+        <v>76400</v>
       </c>
       <c r="J59" s="3">
-        <v>70800</v>
+        <v>72400</v>
       </c>
       <c r="K59" s="3">
         <v>70300</v>
@@ -2334,25 +2334,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>185600</v>
+        <v>189900</v>
       </c>
       <c r="E60" s="3">
-        <v>184200</v>
+        <v>188500</v>
       </c>
       <c r="F60" s="3">
-        <v>171600</v>
+        <v>175700</v>
       </c>
       <c r="G60" s="3">
-        <v>144500</v>
+        <v>147900</v>
       </c>
       <c r="H60" s="3">
-        <v>149800</v>
+        <v>153400</v>
       </c>
       <c r="I60" s="3">
-        <v>95000</v>
+        <v>97200</v>
       </c>
       <c r="J60" s="3">
-        <v>86400</v>
+        <v>88400</v>
       </c>
       <c r="K60" s="3">
         <v>90200</v>
@@ -2369,25 +2369,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>69800</v>
+        <v>71400</v>
       </c>
       <c r="E61" s="3">
-        <v>67300</v>
+        <v>68900</v>
       </c>
       <c r="F61" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="G61" s="3">
-        <v>64100</v>
+        <v>65600</v>
       </c>
       <c r="H61" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="I61" s="3">
-        <v>55600</v>
+        <v>56900</v>
       </c>
       <c r="J61" s="3">
-        <v>55100</v>
+        <v>56400</v>
       </c>
       <c r="K61" s="3">
         <v>55100</v>
@@ -2404,25 +2404,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="E62" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="F62" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="G62" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="H62" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="I62" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="J62" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="K62" s="3">
         <v>25800</v>
@@ -2544,25 +2544,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>264900</v>
+        <v>271200</v>
       </c>
       <c r="E66" s="3">
-        <v>268700</v>
+        <v>275100</v>
       </c>
       <c r="F66" s="3">
-        <v>257900</v>
+        <v>264000</v>
       </c>
       <c r="G66" s="3">
-        <v>218000</v>
+        <v>223100</v>
       </c>
       <c r="H66" s="3">
-        <v>228700</v>
+        <v>234100</v>
       </c>
       <c r="I66" s="3">
-        <v>165500</v>
+        <v>169400</v>
       </c>
       <c r="J66" s="3">
-        <v>164500</v>
+        <v>168400</v>
       </c>
       <c r="K66" s="3">
         <v>171100</v>
@@ -2734,25 +2734,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-1034300</v>
+        <v>-1058700</v>
       </c>
       <c r="E72" s="3">
-        <v>-950900</v>
+        <v>-973300</v>
       </c>
       <c r="F72" s="3">
-        <v>-875600</v>
+        <v>-896200</v>
       </c>
       <c r="G72" s="3">
-        <v>-812700</v>
+        <v>-831900</v>
       </c>
       <c r="H72" s="3">
-        <v>-759100</v>
+        <v>-777000</v>
       </c>
       <c r="I72" s="3">
-        <v>-704800</v>
+        <v>-721400</v>
       </c>
       <c r="J72" s="3">
-        <v>-680000</v>
+        <v>-696000</v>
       </c>
       <c r="K72" s="3">
         <v>-654100</v>
@@ -2874,25 +2874,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4399600</v>
+        <v>4503500</v>
       </c>
       <c r="E76" s="3">
-        <v>3863500</v>
+        <v>3954800</v>
       </c>
       <c r="F76" s="3">
-        <v>2654800</v>
+        <v>2717500</v>
       </c>
       <c r="G76" s="3">
-        <v>2464900</v>
+        <v>2523100</v>
       </c>
       <c r="H76" s="3">
-        <v>1742300</v>
+        <v>1783500</v>
       </c>
       <c r="I76" s="3">
-        <v>831000</v>
+        <v>850600</v>
       </c>
       <c r="J76" s="3">
-        <v>435400</v>
+        <v>445600</v>
       </c>
       <c r="K76" s="3">
         <v>438400</v>
@@ -2984,25 +2984,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-83500</v>
+        <v>-85400</v>
       </c>
       <c r="E81" s="3">
-        <v>-75300</v>
+        <v>-77100</v>
       </c>
       <c r="F81" s="3">
-        <v>-62900</v>
+        <v>-64400</v>
       </c>
       <c r="G81" s="3">
-        <v>-53600</v>
+        <v>-54800</v>
       </c>
       <c r="H81" s="3">
-        <v>-54400</v>
+        <v>-55600</v>
       </c>
       <c r="I81" s="3">
-        <v>-24800</v>
+        <v>-25400</v>
       </c>
       <c r="J81" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="K81" s="3">
         <v>-23700</v>
@@ -3034,25 +3034,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>37300</v>
+        <v>38100</v>
       </c>
       <c r="E83" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="F83" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="G83" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="H83" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="I83" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="J83" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="K83" s="3">
         <v>7200</v>
@@ -3244,25 +3244,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-61500</v>
+        <v>-62900</v>
       </c>
       <c r="E89" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="F89" s="3">
-        <v>-18600</v>
+        <v>-19100</v>
       </c>
       <c r="G89" s="3">
-        <v>-30800</v>
+        <v>-31500</v>
       </c>
       <c r="H89" s="3">
-        <v>-69000</v>
+        <v>-70600</v>
       </c>
       <c r="I89" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J89" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="K89" s="3">
         <v>-11300</v>
@@ -3294,10 +3294,10 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
         <v>-1600</v>
@@ -3399,19 +3399,19 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-209300</v>
+        <v>-214300</v>
       </c>
       <c r="E94" s="3">
-        <v>-264700</v>
+        <v>-271000</v>
       </c>
       <c r="F94" s="3">
-        <v>-244300</v>
+        <v>-250100</v>
       </c>
       <c r="G94" s="3">
         <v>-1200</v>
       </c>
       <c r="H94" s="3">
-        <v>-296900</v>
+        <v>-303900</v>
       </c>
       <c r="I94" s="3">
         <v>400</v>
@@ -3592,19 +3592,19 @@
         <v>-1400</v>
       </c>
       <c r="E100" s="3">
-        <v>1017000</v>
+        <v>1041000</v>
       </c>
       <c r="F100" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G100" s="3">
-        <v>764000</v>
+        <v>782000</v>
       </c>
       <c r="H100" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="I100" s="3">
-        <v>402800</v>
+        <v>412300</v>
       </c>
       <c r="J100" s="3">
         <v>1000</v>
@@ -3659,25 +3659,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-272100</v>
+        <v>-278500</v>
       </c>
       <c r="E102" s="3">
-        <v>734600</v>
+        <v>751900</v>
       </c>
       <c r="F102" s="3">
-        <v>-259200</v>
+        <v>-265400</v>
       </c>
       <c r="G102" s="3">
-        <v>732100</v>
+        <v>749400</v>
       </c>
       <c r="H102" s="3">
-        <v>-357400</v>
+        <v>-365900</v>
       </c>
       <c r="I102" s="3">
-        <v>394500</v>
+        <v>403900</v>
       </c>
       <c r="J102" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="K102" s="3">
         <v>107400</v>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,167 +662,193 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>199200</v>
+        <v>224700</v>
       </c>
       <c r="E8" s="3">
-        <v>173700</v>
+        <v>189500</v>
       </c>
       <c r="F8" s="3">
-        <v>151200</v>
+        <v>197300</v>
       </c>
       <c r="G8" s="3">
-        <v>107500</v>
+        <v>172100</v>
       </c>
       <c r="H8" s="3">
-        <v>75100</v>
+        <v>149800</v>
       </c>
       <c r="I8" s="3">
+        <v>106500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K8" s="3">
         <v>59400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>47200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>46200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>41400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>96100</v>
+        <v>124500</v>
       </c>
       <c r="E9" s="3">
-        <v>89100</v>
+        <v>100900</v>
       </c>
       <c r="F9" s="3">
-        <v>76100</v>
+        <v>95200</v>
       </c>
       <c r="G9" s="3">
-        <v>51000</v>
+        <v>88200</v>
       </c>
       <c r="H9" s="3">
-        <v>31700</v>
+        <v>75400</v>
       </c>
       <c r="I9" s="3">
+        <v>50500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K9" s="3">
         <v>23600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>18700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>15000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>103100</v>
+        <v>100200</v>
       </c>
       <c r="E10" s="3">
-        <v>84700</v>
+        <v>88600</v>
       </c>
       <c r="F10" s="3">
-        <v>75100</v>
+        <v>102100</v>
       </c>
       <c r="G10" s="3">
-        <v>56500</v>
+        <v>83900</v>
       </c>
       <c r="H10" s="3">
-        <v>43400</v>
+        <v>74400</v>
       </c>
       <c r="I10" s="3">
+        <v>56000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K10" s="3">
         <v>35800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>28500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>28900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>26400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,43 +862,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41700</v>
+        <v>46100</v>
       </c>
       <c r="E12" s="3">
-        <v>39300</v>
+        <v>51100</v>
       </c>
       <c r="F12" s="3">
-        <v>29000</v>
+        <v>41400</v>
       </c>
       <c r="G12" s="3">
-        <v>25800</v>
+        <v>38900</v>
       </c>
       <c r="H12" s="3">
-        <v>21500</v>
+        <v>28700</v>
       </c>
       <c r="I12" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K12" s="3">
         <v>16600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>15200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,78 +940,96 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>24800</v>
+        <v>23700</v>
       </c>
       <c r="E14" s="3">
-        <v>11800</v>
+        <v>21100</v>
       </c>
       <c r="F14" s="3">
+        <v>24600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>6500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="E15" s="3">
-        <v>33700</v>
+        <v>38700</v>
       </c>
       <c r="F15" s="3">
-        <v>25400</v>
+        <v>37800</v>
       </c>
       <c r="G15" s="3">
-        <v>20200</v>
+        <v>33400</v>
       </c>
       <c r="H15" s="3">
-        <v>12600</v>
+        <v>25200</v>
       </c>
       <c r="I15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K15" s="3">
         <v>7500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,78 +1040,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>301600</v>
+        <v>360300</v>
       </c>
       <c r="E17" s="3">
-        <v>271300</v>
+        <v>336600</v>
       </c>
       <c r="F17" s="3">
-        <v>217900</v>
+        <v>298800</v>
       </c>
       <c r="G17" s="3">
-        <v>163700</v>
+        <v>268800</v>
       </c>
       <c r="H17" s="3">
-        <v>133300</v>
+        <v>215900</v>
       </c>
       <c r="I17" s="3">
+        <v>162200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K17" s="3">
         <v>86300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>75100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>72300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>62500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-102400</v>
+        <v>-135500</v>
       </c>
       <c r="E18" s="3">
-        <v>-97600</v>
+        <v>-147100</v>
       </c>
       <c r="F18" s="3">
-        <v>-66800</v>
+        <v>-101500</v>
       </c>
       <c r="G18" s="3">
-        <v>-56200</v>
+        <v>-96700</v>
       </c>
       <c r="H18" s="3">
-        <v>-58200</v>
+        <v>-66100</v>
       </c>
       <c r="I18" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-27900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-26100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-21100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1073,83 +1139,97 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-62000</v>
+        <v>-94400</v>
       </c>
       <c r="E21" s="3">
-        <v>-62000</v>
+        <v>-106200</v>
       </c>
       <c r="F21" s="3">
-        <v>-40000</v>
+        <v>-61400</v>
       </c>
       <c r="G21" s="3">
-        <v>-34900</v>
+        <v>-61500</v>
       </c>
       <c r="H21" s="3">
-        <v>-44800</v>
+        <v>-39600</v>
       </c>
       <c r="I21" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-18800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-16400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
@@ -1158,98 +1238,116 @@
         <v>1000</v>
       </c>
       <c r="G22" s="3">
+        <v>900</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-101100</v>
+        <v>-133000</v>
       </c>
       <c r="E23" s="3">
-        <v>-96600</v>
+        <v>-145800</v>
       </c>
       <c r="F23" s="3">
-        <v>-66400</v>
+        <v>-100200</v>
       </c>
       <c r="G23" s="3">
-        <v>-56100</v>
+        <v>-95700</v>
       </c>
       <c r="H23" s="3">
-        <v>-58300</v>
+        <v>-65800</v>
       </c>
       <c r="I23" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-27100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-28200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-26400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-15700</v>
+        <v>-2700</v>
       </c>
       <c r="E24" s="3">
-        <v>-19500</v>
+        <v>2200</v>
       </c>
       <c r="F24" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1283,78 +1381,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-85400</v>
+        <v>-130300</v>
       </c>
       <c r="E26" s="3">
-        <v>-77100</v>
+        <v>-148000</v>
       </c>
       <c r="F26" s="3">
-        <v>-64400</v>
+        <v>-84600</v>
       </c>
       <c r="G26" s="3">
-        <v>-54800</v>
+        <v>-76400</v>
       </c>
       <c r="H26" s="3">
-        <v>-55600</v>
+        <v>-63800</v>
       </c>
       <c r="I26" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-85400</v>
+        <v>-130300</v>
       </c>
       <c r="E27" s="3">
-        <v>-77100</v>
+        <v>-148000</v>
       </c>
       <c r="F27" s="3">
-        <v>-64400</v>
+        <v>-84600</v>
       </c>
       <c r="G27" s="3">
-        <v>-54800</v>
+        <v>-76400</v>
       </c>
       <c r="H27" s="3">
-        <v>-55600</v>
+        <v>-63800</v>
       </c>
       <c r="I27" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-25400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-26200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1388,8 +1504,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1423,8 +1545,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1458,8 +1586,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1493,78 +1627,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-85400</v>
+        <v>-130300</v>
       </c>
       <c r="E33" s="3">
-        <v>-77100</v>
+        <v>-148000</v>
       </c>
       <c r="F33" s="3">
-        <v>-64400</v>
+        <v>-84600</v>
       </c>
       <c r="G33" s="3">
-        <v>-54800</v>
+        <v>-76400</v>
       </c>
       <c r="H33" s="3">
-        <v>-55600</v>
+        <v>-63800</v>
       </c>
       <c r="I33" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-25400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-26200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1598,83 +1750,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-85400</v>
+        <v>-130300</v>
       </c>
       <c r="E35" s="3">
-        <v>-77100</v>
+        <v>-148000</v>
       </c>
       <c r="F35" s="3">
-        <v>-64400</v>
+        <v>-84600</v>
       </c>
       <c r="G35" s="3">
-        <v>-54800</v>
+        <v>-76400</v>
       </c>
       <c r="H35" s="3">
-        <v>-55600</v>
+        <v>-63800</v>
       </c>
       <c r="I35" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-25400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-26200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1688,8 +1858,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1703,43 +1875,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1260900</v>
+        <v>1182300</v>
       </c>
       <c r="E41" s="3">
-        <v>1539400</v>
+        <v>1232500</v>
       </c>
       <c r="F41" s="3">
-        <v>787500</v>
+        <v>1249300</v>
       </c>
       <c r="G41" s="3">
-        <v>1052800</v>
+        <v>1525300</v>
       </c>
       <c r="H41" s="3">
-        <v>303500</v>
+        <v>780200</v>
       </c>
       <c r="I41" s="3">
+        <v>1043200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>300700</v>
+      </c>
+      <c r="K41" s="3">
         <v>669300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>265500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>268700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>162500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1773,171 +1953,201 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>66100</v>
+        <v>66000</v>
       </c>
       <c r="E43" s="3">
-        <v>41800</v>
+        <v>59100</v>
       </c>
       <c r="F43" s="3">
-        <v>34900</v>
+        <v>65500</v>
       </c>
       <c r="G43" s="3">
-        <v>32300</v>
+        <v>41400</v>
       </c>
       <c r="H43" s="3">
-        <v>25900</v>
+        <v>34600</v>
       </c>
       <c r="I43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K43" s="3">
         <v>13300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>13400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>13900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F44" s="3">
         <v>5800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>45800</v>
+        <v>38800</v>
       </c>
       <c r="E45" s="3">
-        <v>25200</v>
+        <v>45900</v>
       </c>
       <c r="F45" s="3">
-        <v>35100</v>
+        <v>45400</v>
       </c>
       <c r="G45" s="3">
-        <v>31500</v>
+        <v>24900</v>
       </c>
       <c r="H45" s="3">
-        <v>32300</v>
+        <v>34700</v>
       </c>
       <c r="I45" s="3">
+        <v>31200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>12400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1378700</v>
+        <v>1298200</v>
       </c>
       <c r="E46" s="3">
-        <v>1610200</v>
+        <v>1347300</v>
       </c>
       <c r="F46" s="3">
-        <v>861900</v>
+        <v>1366000</v>
       </c>
       <c r="G46" s="3">
-        <v>1118700</v>
+        <v>1595400</v>
       </c>
       <c r="H46" s="3">
-        <v>363600</v>
+        <v>854000</v>
       </c>
       <c r="I46" s="3">
+        <v>1108400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>360300</v>
+      </c>
+      <c r="K46" s="3">
         <v>703700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>292100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>297100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>186200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1948,78 +2158,96 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>56400</v>
+        <v>53700</v>
       </c>
       <c r="E48" s="3">
-        <v>48400</v>
+        <v>54300</v>
       </c>
       <c r="F48" s="3">
-        <v>45300</v>
+        <v>55800</v>
       </c>
       <c r="G48" s="3">
-        <v>38500</v>
+        <v>47900</v>
       </c>
       <c r="H48" s="3">
-        <v>39200</v>
+        <v>44800</v>
       </c>
       <c r="I48" s="3">
+        <v>38200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K48" s="3">
         <v>28400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>30000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>30500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>27000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3312200</v>
+        <v>3205100</v>
       </c>
       <c r="E49" s="3">
-        <v>2548900</v>
+        <v>3249000</v>
       </c>
       <c r="F49" s="3">
-        <v>2055000</v>
+        <v>3281800</v>
       </c>
       <c r="G49" s="3">
-        <v>1573700</v>
+        <v>2525400</v>
       </c>
       <c r="H49" s="3">
-        <v>1600200</v>
+        <v>2036100</v>
       </c>
       <c r="I49" s="3">
+        <v>1559200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1585400</v>
+      </c>
+      <c r="K49" s="3">
         <v>279000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>276600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>266800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>138100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2053,8 +2281,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2088,43 +2322,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>27400</v>
+        <v>22500</v>
       </c>
       <c r="E52" s="3">
-        <v>22400</v>
+        <v>20600</v>
       </c>
       <c r="F52" s="3">
-        <v>19400</v>
+        <v>21600</v>
       </c>
       <c r="G52" s="3">
-        <v>15200</v>
+        <v>17900</v>
       </c>
       <c r="H52" s="3">
-        <v>14600</v>
+        <v>16000</v>
       </c>
       <c r="I52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K52" s="3">
         <v>8900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>15100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2158,43 +2404,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4774700</v>
+        <v>4591400</v>
       </c>
       <c r="E54" s="3">
-        <v>4229900</v>
+        <v>4678500</v>
       </c>
       <c r="F54" s="3">
-        <v>2981500</v>
+        <v>4730800</v>
       </c>
       <c r="G54" s="3">
-        <v>2746200</v>
+        <v>4190900</v>
       </c>
       <c r="H54" s="3">
-        <v>2017500</v>
+        <v>2954100</v>
       </c>
       <c r="I54" s="3">
+        <v>2720900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1999000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1020100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>614100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>609400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>356800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2208,8 +2466,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2223,218 +2483,256 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>42400</v>
+        <v>47600</v>
       </c>
       <c r="E57" s="3">
-        <v>48100</v>
+        <v>50700</v>
       </c>
       <c r="F57" s="3">
-        <v>44400</v>
+        <v>42000</v>
       </c>
       <c r="G57" s="3">
-        <v>28800</v>
+        <v>47600</v>
       </c>
       <c r="H57" s="3">
-        <v>33300</v>
+        <v>44000</v>
       </c>
       <c r="I57" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K57" s="3">
         <v>17700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9800</v>
+        <v>48100</v>
       </c>
       <c r="E58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>6700</v>
-      </c>
       <c r="H58" s="3">
-        <v>7100</v>
+        <v>8600</v>
       </c>
       <c r="I58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>137800</v>
+        <v>138300</v>
       </c>
       <c r="E59" s="3">
-        <v>131200</v>
+        <v>143400</v>
       </c>
       <c r="F59" s="3">
-        <v>122600</v>
+        <v>136500</v>
       </c>
       <c r="G59" s="3">
-        <v>112400</v>
+        <v>130000</v>
       </c>
       <c r="H59" s="3">
-        <v>113000</v>
+        <v>121400</v>
       </c>
       <c r="I59" s="3">
+        <v>111400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K59" s="3">
         <v>76400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>72400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>70300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>67100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>189900</v>
+        <v>234000</v>
       </c>
       <c r="E60" s="3">
-        <v>188500</v>
+        <v>204000</v>
       </c>
       <c r="F60" s="3">
-        <v>175700</v>
+        <v>188200</v>
       </c>
       <c r="G60" s="3">
-        <v>147900</v>
+        <v>186800</v>
       </c>
       <c r="H60" s="3">
-        <v>153400</v>
+        <v>174000</v>
       </c>
       <c r="I60" s="3">
+        <v>146600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>151900</v>
+      </c>
+      <c r="K60" s="3">
         <v>97200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>88400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>90200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>82800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>71400</v>
+        <v>26900</v>
       </c>
       <c r="E61" s="3">
-        <v>68900</v>
+        <v>68300</v>
       </c>
       <c r="F61" s="3">
-        <v>69400</v>
+        <v>70700</v>
       </c>
       <c r="G61" s="3">
-        <v>65600</v>
+        <v>68200</v>
       </c>
       <c r="H61" s="3">
-        <v>65300</v>
+        <v>68800</v>
       </c>
       <c r="I61" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K61" s="3">
         <v>56900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>56400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>55100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="E62" s="3">
-        <v>17700</v>
+        <v>12900</v>
       </c>
       <c r="F62" s="3">
-        <v>18900</v>
+        <v>9800</v>
       </c>
       <c r="G62" s="3">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="H62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K62" s="3">
         <v>15400</v>
       </c>
-      <c r="I62" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2468,8 +2766,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2503,8 +2807,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2538,43 +2848,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>271200</v>
+        <v>270400</v>
       </c>
       <c r="E66" s="3">
-        <v>275100</v>
+        <v>285200</v>
       </c>
       <c r="F66" s="3">
-        <v>264000</v>
+        <v>268700</v>
       </c>
       <c r="G66" s="3">
-        <v>223100</v>
+        <v>272600</v>
       </c>
       <c r="H66" s="3">
-        <v>234100</v>
+        <v>261600</v>
       </c>
       <c r="I66" s="3">
+        <v>221000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>231900</v>
+      </c>
+      <c r="K66" s="3">
         <v>169400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>168400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>171100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>109900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2588,8 +2910,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2623,8 +2947,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2658,8 +2988,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2693,8 +3029,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2728,43 +3070,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-1058700</v>
+        <v>-1327300</v>
       </c>
       <c r="E72" s="3">
-        <v>-973300</v>
+        <v>-1197000</v>
       </c>
       <c r="F72" s="3">
-        <v>-896200</v>
+        <v>-1049000</v>
       </c>
       <c r="G72" s="3">
-        <v>-831900</v>
+        <v>-964400</v>
       </c>
       <c r="H72" s="3">
-        <v>-777000</v>
+        <v>-888000</v>
       </c>
       <c r="I72" s="3">
+        <v>-824200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-769900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-721400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-696000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-654100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-634700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2798,8 +3152,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2833,8 +3193,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2868,43 +3234,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4503500</v>
+        <v>4321000</v>
       </c>
       <c r="E76" s="3">
-        <v>3954800</v>
+        <v>4393200</v>
       </c>
       <c r="F76" s="3">
-        <v>2717500</v>
+        <v>4462100</v>
       </c>
       <c r="G76" s="3">
-        <v>2523100</v>
+        <v>3918400</v>
       </c>
       <c r="H76" s="3">
-        <v>1783500</v>
+        <v>2692500</v>
       </c>
       <c r="I76" s="3">
+        <v>2499900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1767100</v>
+      </c>
+      <c r="K76" s="3">
         <v>850600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>445600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>438400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>246800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2938,83 +3316,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-85400</v>
+        <v>-130300</v>
       </c>
       <c r="E81" s="3">
-        <v>-77100</v>
+        <v>-148000</v>
       </c>
       <c r="F81" s="3">
-        <v>-64400</v>
+        <v>-84600</v>
       </c>
       <c r="G81" s="3">
-        <v>-54800</v>
+        <v>-76400</v>
       </c>
       <c r="H81" s="3">
-        <v>-55600</v>
+        <v>-63800</v>
       </c>
       <c r="I81" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-25400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-26200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3028,43 +3424,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="E83" s="3">
-        <v>33700</v>
+        <v>38700</v>
       </c>
       <c r="F83" s="3">
-        <v>25400</v>
+        <v>37800</v>
       </c>
       <c r="G83" s="3">
-        <v>20200</v>
+        <v>33400</v>
       </c>
       <c r="H83" s="3">
-        <v>12600</v>
+        <v>25200</v>
       </c>
       <c r="I83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3098,8 +3502,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3133,8 +3543,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3168,8 +3584,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3203,8 +3625,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3238,43 +3666,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-62900</v>
+        <v>-43200</v>
       </c>
       <c r="E89" s="3">
-        <v>-17000</v>
+        <v>-14700</v>
       </c>
       <c r="F89" s="3">
-        <v>-19100</v>
+        <v>-62300</v>
       </c>
       <c r="G89" s="3">
-        <v>-31500</v>
+        <v>-16800</v>
       </c>
       <c r="H89" s="3">
-        <v>-70600</v>
+        <v>-18900</v>
       </c>
       <c r="I89" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3288,43 +3728,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-4000</v>
       </c>
       <c r="E91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3358,8 +3806,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3393,43 +3847,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-214300</v>
+        <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>-271000</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>-250100</v>
+        <v>-212300</v>
       </c>
       <c r="G94" s="3">
+        <v>-268500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-247800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-303900</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-301100</v>
+      </c>
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-75200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-44700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3443,8 +3909,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3478,8 +3946,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3513,8 +3987,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3548,8 +4028,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3583,109 +4069,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>1041000</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="H100" s="3">
         <v>3600</v>
       </c>
-      <c r="G100" s="3">
-        <v>782000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>7700</v>
-      </c>
       <c r="I100" s="3">
+        <v>774800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K100" s="3">
         <v>412300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>195800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-278500</v>
+        <v>-50200</v>
       </c>
       <c r="E102" s="3">
-        <v>751900</v>
+        <v>-16800</v>
       </c>
       <c r="F102" s="3">
-        <v>-265400</v>
+        <v>-275900</v>
       </c>
       <c r="G102" s="3">
-        <v>749400</v>
+        <v>745000</v>
       </c>
       <c r="H102" s="3">
-        <v>-365900</v>
+        <v>-262900</v>
       </c>
       <c r="I102" s="3">
+        <v>742500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-362500</v>
+      </c>
+      <c r="K102" s="3">
         <v>403900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>107400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-57900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-25100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,193 +662,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>224700</v>
+        <v>244700</v>
       </c>
       <c r="E8" s="3">
-        <v>189500</v>
+        <v>231600</v>
       </c>
       <c r="F8" s="3">
-        <v>197300</v>
+        <v>195200</v>
       </c>
       <c r="G8" s="3">
-        <v>172100</v>
+        <v>203400</v>
       </c>
       <c r="H8" s="3">
-        <v>149800</v>
+        <v>177400</v>
       </c>
       <c r="I8" s="3">
-        <v>106500</v>
+        <v>154400</v>
       </c>
       <c r="J8" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K8" s="3">
         <v>74400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>124500</v>
+        <v>136100</v>
       </c>
       <c r="E9" s="3">
-        <v>100900</v>
+        <v>128300</v>
       </c>
       <c r="F9" s="3">
-        <v>95200</v>
+        <v>103900</v>
       </c>
       <c r="G9" s="3">
-        <v>88200</v>
+        <v>98100</v>
       </c>
       <c r="H9" s="3">
-        <v>75400</v>
+        <v>90900</v>
       </c>
       <c r="I9" s="3">
-        <v>50500</v>
+        <v>77700</v>
       </c>
       <c r="J9" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K9" s="3">
         <v>31400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100200</v>
+        <v>108500</v>
       </c>
       <c r="E10" s="3">
-        <v>88600</v>
+        <v>103300</v>
       </c>
       <c r="F10" s="3">
-        <v>102100</v>
+        <v>91300</v>
       </c>
       <c r="G10" s="3">
-        <v>83900</v>
+        <v>105200</v>
       </c>
       <c r="H10" s="3">
-        <v>74400</v>
+        <v>86500</v>
       </c>
       <c r="I10" s="3">
-        <v>56000</v>
+        <v>76600</v>
       </c>
       <c r="J10" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K10" s="3">
         <v>43000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,49 +877,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46100</v>
+        <v>48700</v>
       </c>
       <c r="E12" s="3">
-        <v>51100</v>
+        <v>47500</v>
       </c>
       <c r="F12" s="3">
-        <v>41400</v>
+        <v>52600</v>
       </c>
       <c r="G12" s="3">
-        <v>38900</v>
+        <v>42600</v>
       </c>
       <c r="H12" s="3">
-        <v>28700</v>
+        <v>40100</v>
       </c>
       <c r="I12" s="3">
-        <v>25600</v>
+        <v>29600</v>
       </c>
       <c r="J12" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K12" s="3">
         <v>21300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,90 +963,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>23700</v>
+        <v>17700</v>
       </c>
       <c r="E14" s="3">
-        <v>21100</v>
+        <v>24400</v>
       </c>
       <c r="F14" s="3">
-        <v>24600</v>
+        <v>21700</v>
       </c>
       <c r="G14" s="3">
-        <v>11700</v>
+        <v>25300</v>
       </c>
       <c r="H14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="E15" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="F15" s="3">
-        <v>37800</v>
+        <v>39900</v>
       </c>
       <c r="G15" s="3">
-        <v>33400</v>
+        <v>38900</v>
       </c>
       <c r="H15" s="3">
-        <v>25200</v>
+        <v>34400</v>
       </c>
       <c r="I15" s="3">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="J15" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,8 +1068,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,81 +1078,87 @@
         <v>360300</v>
       </c>
       <c r="E17" s="3">
-        <v>336600</v>
+        <v>371300</v>
       </c>
       <c r="F17" s="3">
-        <v>298800</v>
+        <v>346800</v>
       </c>
       <c r="G17" s="3">
-        <v>268800</v>
+        <v>307900</v>
       </c>
       <c r="H17" s="3">
-        <v>215900</v>
+        <v>277000</v>
       </c>
       <c r="I17" s="3">
-        <v>162200</v>
+        <v>222500</v>
       </c>
       <c r="J17" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K17" s="3">
         <v>132100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-135500</v>
+        <v>-115600</v>
       </c>
       <c r="E18" s="3">
-        <v>-147100</v>
+        <v>-139700</v>
       </c>
       <c r="F18" s="3">
-        <v>-101500</v>
+        <v>-151600</v>
       </c>
       <c r="G18" s="3">
-        <v>-96700</v>
+        <v>-104600</v>
       </c>
       <c r="H18" s="3">
-        <v>-66100</v>
+        <v>-99600</v>
       </c>
       <c r="I18" s="3">
-        <v>-55700</v>
+        <v>-68200</v>
       </c>
       <c r="J18" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-57700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1141,172 +1174,185 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
+        <v>600</v>
+      </c>
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
-        <v>800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-94400</v>
+        <v>-69900</v>
       </c>
       <c r="E21" s="3">
-        <v>-106200</v>
+        <v>-97300</v>
       </c>
       <c r="F21" s="3">
-        <v>-61400</v>
+        <v>-109500</v>
       </c>
       <c r="G21" s="3">
-        <v>-61500</v>
+        <v>-63300</v>
       </c>
       <c r="H21" s="3">
-        <v>-39600</v>
+        <v>-63300</v>
       </c>
       <c r="I21" s="3">
-        <v>-34600</v>
+        <v>-40800</v>
       </c>
       <c r="J21" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-44300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
       </c>
       <c r="J22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="3">
         <v>900</v>
       </c>
       <c r="L22" s="3">
+        <v>900</v>
+      </c>
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-133000</v>
+        <v>-109200</v>
       </c>
       <c r="E23" s="3">
-        <v>-145800</v>
+        <v>-137000</v>
       </c>
       <c r="F23" s="3">
-        <v>-100200</v>
+        <v>-150300</v>
       </c>
       <c r="G23" s="3">
-        <v>-95700</v>
+        <v>-103200</v>
       </c>
       <c r="H23" s="3">
-        <v>-65800</v>
+        <v>-98600</v>
       </c>
       <c r="I23" s="3">
-        <v>-55500</v>
+        <v>-67800</v>
       </c>
       <c r="J23" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-57700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1314,40 +1360,43 @@
         <v>-2700</v>
       </c>
       <c r="E24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
-        <v>-15500</v>
-      </c>
       <c r="G24" s="3">
-        <v>-19400</v>
+        <v>-16000</v>
       </c>
       <c r="H24" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1387,90 +1436,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-130300</v>
+        <v>-106500</v>
       </c>
       <c r="E26" s="3">
-        <v>-148000</v>
+        <v>-134200</v>
       </c>
       <c r="F26" s="3">
-        <v>-84600</v>
+        <v>-152500</v>
       </c>
       <c r="G26" s="3">
-        <v>-76400</v>
+        <v>-87200</v>
       </c>
       <c r="H26" s="3">
-        <v>-63800</v>
+        <v>-78700</v>
       </c>
       <c r="I26" s="3">
-        <v>-54300</v>
+        <v>-65700</v>
       </c>
       <c r="J26" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-55100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-130300</v>
+        <v>-106500</v>
       </c>
       <c r="E27" s="3">
-        <v>-148000</v>
+        <v>-134200</v>
       </c>
       <c r="F27" s="3">
-        <v>-84600</v>
+        <v>-152500</v>
       </c>
       <c r="G27" s="3">
-        <v>-76400</v>
+        <v>-87200</v>
       </c>
       <c r="H27" s="3">
-        <v>-63800</v>
+        <v>-78700</v>
       </c>
       <c r="I27" s="3">
-        <v>-54300</v>
+        <v>-65700</v>
       </c>
       <c r="J27" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-55100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1633,90 +1700,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-130300</v>
+        <v>-106500</v>
       </c>
       <c r="E33" s="3">
-        <v>-148000</v>
+        <v>-134200</v>
       </c>
       <c r="F33" s="3">
-        <v>-84600</v>
+        <v>-152500</v>
       </c>
       <c r="G33" s="3">
-        <v>-76400</v>
+        <v>-87200</v>
       </c>
       <c r="H33" s="3">
-        <v>-63800</v>
+        <v>-78700</v>
       </c>
       <c r="I33" s="3">
-        <v>-54300</v>
+        <v>-65700</v>
       </c>
       <c r="J33" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-55100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1756,95 +1832,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-130300</v>
+        <v>-106500</v>
       </c>
       <c r="E35" s="3">
-        <v>-148000</v>
+        <v>-134200</v>
       </c>
       <c r="F35" s="3">
-        <v>-84600</v>
+        <v>-152500</v>
       </c>
       <c r="G35" s="3">
-        <v>-76400</v>
+        <v>-87200</v>
       </c>
       <c r="H35" s="3">
-        <v>-63800</v>
+        <v>-78700</v>
       </c>
       <c r="I35" s="3">
-        <v>-54300</v>
+        <v>-65700</v>
       </c>
       <c r="J35" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-55100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1877,49 +1963,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1182300</v>
+        <v>1148800</v>
       </c>
       <c r="E41" s="3">
-        <v>1232500</v>
+        <v>1218300</v>
       </c>
       <c r="F41" s="3">
-        <v>1249300</v>
+        <v>1270100</v>
       </c>
       <c r="G41" s="3">
-        <v>1525300</v>
+        <v>1287400</v>
       </c>
       <c r="H41" s="3">
-        <v>780200</v>
+        <v>1571800</v>
       </c>
       <c r="I41" s="3">
-        <v>1043200</v>
+        <v>804000</v>
       </c>
       <c r="J41" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="K41" s="3">
         <v>300700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>669300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>265500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>268700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1959,199 +2049,214 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>66000</v>
+        <v>84700</v>
       </c>
       <c r="E43" s="3">
-        <v>59100</v>
+        <v>68000</v>
       </c>
       <c r="F43" s="3">
-        <v>65500</v>
+        <v>61000</v>
       </c>
       <c r="G43" s="3">
-        <v>41400</v>
+        <v>67500</v>
       </c>
       <c r="H43" s="3">
-        <v>34600</v>
+        <v>42700</v>
       </c>
       <c r="I43" s="3">
-        <v>32000</v>
+        <v>35700</v>
       </c>
       <c r="J43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K43" s="3">
         <v>25700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11100</v>
+        <v>13300</v>
       </c>
       <c r="E44" s="3">
-        <v>9700</v>
+        <v>11400</v>
       </c>
       <c r="F44" s="3">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="G44" s="3">
-        <v>3800</v>
+        <v>5900</v>
       </c>
       <c r="H44" s="3">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="I44" s="3">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="J44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>38800</v>
+        <v>33400</v>
       </c>
       <c r="E45" s="3">
-        <v>45900</v>
+        <v>40000</v>
       </c>
       <c r="F45" s="3">
-        <v>45400</v>
+        <v>47300</v>
       </c>
       <c r="G45" s="3">
-        <v>24900</v>
+        <v>46800</v>
       </c>
       <c r="H45" s="3">
-        <v>34700</v>
+        <v>25700</v>
       </c>
       <c r="I45" s="3">
-        <v>31200</v>
+        <v>35800</v>
       </c>
       <c r="J45" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K45" s="3">
         <v>32000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1298200</v>
+        <v>1280200</v>
       </c>
       <c r="E46" s="3">
-        <v>1347300</v>
+        <v>1337800</v>
       </c>
       <c r="F46" s="3">
-        <v>1366000</v>
+        <v>1388400</v>
       </c>
       <c r="G46" s="3">
-        <v>1595400</v>
+        <v>1407600</v>
       </c>
       <c r="H46" s="3">
-        <v>854000</v>
+        <v>1644000</v>
       </c>
       <c r="I46" s="3">
-        <v>1108400</v>
+        <v>880000</v>
       </c>
       <c r="J46" s="3">
+        <v>1142200</v>
+      </c>
+      <c r="K46" s="3">
         <v>360300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>703700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>292100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>297100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>186200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>11900</v>
+        <v>13000</v>
       </c>
       <c r="E47" s="3">
-        <v>7200</v>
+        <v>12200</v>
       </c>
       <c r="F47" s="3">
-        <v>5600</v>
+        <v>7400</v>
       </c>
       <c r="G47" s="3">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="H47" s="3">
-        <v>3200</v>
+        <v>4400</v>
       </c>
       <c r="I47" s="3">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="J47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -2164,90 +2269,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>53700</v>
+        <v>55500</v>
       </c>
       <c r="E48" s="3">
-        <v>54300</v>
+        <v>55400</v>
       </c>
       <c r="F48" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="G48" s="3">
-        <v>47900</v>
+        <v>57600</v>
       </c>
       <c r="H48" s="3">
-        <v>44800</v>
+        <v>49400</v>
       </c>
       <c r="I48" s="3">
-        <v>38200</v>
+        <v>46200</v>
       </c>
       <c r="J48" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K48" s="3">
         <v>38800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3205100</v>
+        <v>3260600</v>
       </c>
       <c r="E49" s="3">
-        <v>3249000</v>
+        <v>3302800</v>
       </c>
       <c r="F49" s="3">
-        <v>3281800</v>
+        <v>3348100</v>
       </c>
       <c r="G49" s="3">
-        <v>2525400</v>
+        <v>3381800</v>
       </c>
       <c r="H49" s="3">
-        <v>2036100</v>
+        <v>2602400</v>
       </c>
       <c r="I49" s="3">
-        <v>1559200</v>
+        <v>2098100</v>
       </c>
       <c r="J49" s="3">
+        <v>1606700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1585400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>279000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>276600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>266800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>138100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2328,49 +2445,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>22500</v>
+        <v>22400</v>
       </c>
       <c r="E52" s="3">
-        <v>20600</v>
+        <v>23200</v>
       </c>
       <c r="F52" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="G52" s="3">
-        <v>17900</v>
+        <v>22200</v>
       </c>
       <c r="H52" s="3">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="I52" s="3">
-        <v>12200</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2410,49 +2533,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4591400</v>
+        <v>4631700</v>
       </c>
       <c r="E54" s="3">
-        <v>4678500</v>
+        <v>4731400</v>
       </c>
       <c r="F54" s="3">
-        <v>4730800</v>
+        <v>4821100</v>
       </c>
       <c r="G54" s="3">
-        <v>4190900</v>
+        <v>4875000</v>
       </c>
       <c r="H54" s="3">
-        <v>2954100</v>
+        <v>4318700</v>
       </c>
       <c r="I54" s="3">
-        <v>2720900</v>
+        <v>3044200</v>
       </c>
       <c r="J54" s="3">
+        <v>2803900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1999000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1020100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>614100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>609400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>356800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2485,254 +2615,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>47600</v>
+        <v>49300</v>
       </c>
       <c r="E57" s="3">
-        <v>50700</v>
+        <v>49100</v>
       </c>
       <c r="F57" s="3">
-        <v>42000</v>
+        <v>52300</v>
       </c>
       <c r="G57" s="3">
-        <v>47600</v>
+        <v>43300</v>
       </c>
       <c r="H57" s="3">
-        <v>44000</v>
+        <v>49100</v>
       </c>
       <c r="I57" s="3">
-        <v>28500</v>
+        <v>45400</v>
       </c>
       <c r="J57" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K57" s="3">
         <v>33000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>48100</v>
+        <v>9100</v>
       </c>
       <c r="E58" s="3">
-        <v>9900</v>
+        <v>49500</v>
       </c>
       <c r="F58" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="G58" s="3">
-        <v>9200</v>
+        <v>10000</v>
       </c>
       <c r="H58" s="3">
-        <v>8600</v>
+        <v>9400</v>
       </c>
       <c r="I58" s="3">
-        <v>6600</v>
+        <v>8800</v>
       </c>
       <c r="J58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>138300</v>
+        <v>141200</v>
       </c>
       <c r="E59" s="3">
-        <v>143400</v>
+        <v>142500</v>
       </c>
       <c r="F59" s="3">
-        <v>136500</v>
+        <v>147800</v>
       </c>
       <c r="G59" s="3">
-        <v>130000</v>
+        <v>140600</v>
       </c>
       <c r="H59" s="3">
-        <v>121400</v>
+        <v>134000</v>
       </c>
       <c r="I59" s="3">
-        <v>111400</v>
+        <v>125100</v>
       </c>
       <c r="J59" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K59" s="3">
         <v>111900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>70300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>67100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>234000</v>
+        <v>199600</v>
       </c>
       <c r="E60" s="3">
-        <v>204000</v>
+        <v>241100</v>
       </c>
       <c r="F60" s="3">
-        <v>188200</v>
+        <v>210200</v>
       </c>
       <c r="G60" s="3">
-        <v>186800</v>
+        <v>193900</v>
       </c>
       <c r="H60" s="3">
-        <v>174000</v>
+        <v>192500</v>
       </c>
       <c r="I60" s="3">
-        <v>146600</v>
+        <v>179300</v>
       </c>
       <c r="J60" s="3">
+        <v>151000</v>
+      </c>
+      <c r="K60" s="3">
         <v>151900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>88400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>26900</v>
+        <v>25800</v>
       </c>
       <c r="E61" s="3">
-        <v>68300</v>
+        <v>27800</v>
       </c>
       <c r="F61" s="3">
-        <v>70700</v>
+        <v>70400</v>
       </c>
       <c r="G61" s="3">
-        <v>68200</v>
+        <v>72900</v>
       </c>
       <c r="H61" s="3">
-        <v>68800</v>
+        <v>70300</v>
       </c>
       <c r="I61" s="3">
-        <v>65000</v>
+        <v>70900</v>
       </c>
       <c r="J61" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K61" s="3">
         <v>64700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>56900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>55100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="E62" s="3">
-        <v>12900</v>
+        <v>9800</v>
       </c>
       <c r="F62" s="3">
-        <v>9800</v>
+        <v>13300</v>
       </c>
       <c r="G62" s="3">
-        <v>17500</v>
+        <v>10100</v>
       </c>
       <c r="H62" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="I62" s="3">
-        <v>9400</v>
+        <v>19300</v>
       </c>
       <c r="J62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K62" s="3">
         <v>15200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2854,49 +3009,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>270400</v>
+        <v>230900</v>
       </c>
       <c r="E66" s="3">
-        <v>285200</v>
+        <v>278600</v>
       </c>
       <c r="F66" s="3">
-        <v>268700</v>
+        <v>293900</v>
       </c>
       <c r="G66" s="3">
-        <v>272600</v>
+        <v>276900</v>
       </c>
       <c r="H66" s="3">
-        <v>261600</v>
+        <v>280900</v>
       </c>
       <c r="I66" s="3">
-        <v>221000</v>
+        <v>269500</v>
       </c>
       <c r="J66" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K66" s="3">
         <v>231900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>169400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>168400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>171100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>109900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3076,49 +3247,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-1327300</v>
+        <v>-1474200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1197000</v>
+        <v>-1367700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1049000</v>
+        <v>-1233500</v>
       </c>
       <c r="G72" s="3">
-        <v>-964400</v>
+        <v>-1081000</v>
       </c>
       <c r="H72" s="3">
-        <v>-888000</v>
+        <v>-993800</v>
       </c>
       <c r="I72" s="3">
-        <v>-824200</v>
+        <v>-915100</v>
       </c>
       <c r="J72" s="3">
+        <v>-849400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-769900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-721400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-696000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-654100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-634700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3240,49 +3423,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4321000</v>
+        <v>4400800</v>
       </c>
       <c r="E76" s="3">
-        <v>4393200</v>
+        <v>4452800</v>
       </c>
       <c r="F76" s="3">
-        <v>4462100</v>
+        <v>4527200</v>
       </c>
       <c r="G76" s="3">
-        <v>3918400</v>
+        <v>4598100</v>
       </c>
       <c r="H76" s="3">
-        <v>2692500</v>
+        <v>4037800</v>
       </c>
       <c r="I76" s="3">
-        <v>2499900</v>
+        <v>2774600</v>
       </c>
       <c r="J76" s="3">
+        <v>2576100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1767100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>850600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>445600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>438400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>246800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3322,95 +3511,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-130300</v>
+        <v>-106500</v>
       </c>
       <c r="E81" s="3">
-        <v>-148000</v>
+        <v>-134200</v>
       </c>
       <c r="F81" s="3">
-        <v>-84600</v>
+        <v>-152500</v>
       </c>
       <c r="G81" s="3">
-        <v>-76400</v>
+        <v>-87200</v>
       </c>
       <c r="H81" s="3">
-        <v>-63800</v>
+        <v>-78700</v>
       </c>
       <c r="I81" s="3">
-        <v>-54300</v>
+        <v>-65700</v>
       </c>
       <c r="J81" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-55100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3426,49 +3624,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="E83" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="F83" s="3">
-        <v>37800</v>
+        <v>39900</v>
       </c>
       <c r="G83" s="3">
-        <v>33400</v>
+        <v>38900</v>
       </c>
       <c r="H83" s="3">
-        <v>25200</v>
+        <v>34400</v>
       </c>
       <c r="I83" s="3">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="J83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3672,49 +3886,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-43200</v>
+        <v>-31800</v>
       </c>
       <c r="E89" s="3">
-        <v>-14700</v>
+        <v>-44500</v>
       </c>
       <c r="F89" s="3">
-        <v>-62300</v>
+        <v>-15100</v>
       </c>
       <c r="G89" s="3">
-        <v>-16800</v>
+        <v>-64200</v>
       </c>
       <c r="H89" s="3">
-        <v>-18900</v>
+        <v>-17400</v>
       </c>
       <c r="I89" s="3">
-        <v>-31200</v>
+        <v>-19500</v>
       </c>
       <c r="J89" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-70000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3730,49 +3950,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-4000</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6700</v>
-      </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-6900</v>
       </c>
       <c r="H91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1700</v>
       </c>
       <c r="N91" s="3">
         <v>-1700</v>
       </c>
       <c r="O91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3853,49 +4080,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2800</v>
+        <v>2500</v>
       </c>
       <c r="E94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-212300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-268500</v>
+        <v>-218800</v>
       </c>
       <c r="H94" s="3">
-        <v>-247800</v>
+        <v>-276700</v>
       </c>
       <c r="I94" s="3">
+        <v>-255300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-301100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-44700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4075,127 +4318,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>1031400</v>
-      </c>
       <c r="H100" s="3">
-        <v>3600</v>
+        <v>1062900</v>
       </c>
       <c r="I100" s="3">
-        <v>774800</v>
+        <v>3700</v>
       </c>
       <c r="J100" s="3">
+        <v>798500</v>
+      </c>
+      <c r="K100" s="3">
         <v>7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>412300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>195800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>800</v>
       </c>
       <c r="L101" s="3">
         <v>800</v>
       </c>
       <c r="M101" s="3">
+        <v>800</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-50200</v>
+        <v>-69500</v>
       </c>
       <c r="E102" s="3">
-        <v>-16800</v>
+        <v>-51800</v>
       </c>
       <c r="F102" s="3">
-        <v>-275900</v>
+        <v>-17300</v>
       </c>
       <c r="G102" s="3">
-        <v>745000</v>
+        <v>-284400</v>
       </c>
       <c r="H102" s="3">
-        <v>-262900</v>
+        <v>767700</v>
       </c>
       <c r="I102" s="3">
-        <v>742500</v>
+        <v>-270900</v>
       </c>
       <c r="J102" s="3">
+        <v>765100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-362500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>403900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>107400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-57900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +662,218 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>244700</v>
+        <v>260900</v>
       </c>
       <c r="E8" s="3">
-        <v>231600</v>
+        <v>254000</v>
       </c>
       <c r="F8" s="3">
-        <v>195200</v>
+        <v>240500</v>
       </c>
       <c r="G8" s="3">
-        <v>203400</v>
+        <v>202700</v>
       </c>
       <c r="H8" s="3">
-        <v>177400</v>
+        <v>211100</v>
       </c>
       <c r="I8" s="3">
-        <v>154400</v>
+        <v>184200</v>
       </c>
       <c r="J8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K8" s="3">
         <v>109700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>59400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>136100</v>
+        <v>142000</v>
       </c>
       <c r="E9" s="3">
-        <v>128300</v>
+        <v>141400</v>
       </c>
       <c r="F9" s="3">
-        <v>103900</v>
+        <v>133200</v>
       </c>
       <c r="G9" s="3">
-        <v>98100</v>
+        <v>107900</v>
       </c>
       <c r="H9" s="3">
-        <v>90900</v>
+        <v>101900</v>
       </c>
       <c r="I9" s="3">
-        <v>77700</v>
+        <v>94400</v>
       </c>
       <c r="J9" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K9" s="3">
         <v>52100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>108500</v>
+        <v>118900</v>
       </c>
       <c r="E10" s="3">
-        <v>103300</v>
+        <v>112600</v>
       </c>
       <c r="F10" s="3">
-        <v>91300</v>
+        <v>107200</v>
       </c>
       <c r="G10" s="3">
-        <v>105200</v>
+        <v>94800</v>
       </c>
       <c r="H10" s="3">
-        <v>86500</v>
+        <v>109300</v>
       </c>
       <c r="I10" s="3">
-        <v>76600</v>
+        <v>89800</v>
       </c>
       <c r="J10" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K10" s="3">
         <v>57700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +890,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>48700</v>
+        <v>51700</v>
       </c>
       <c r="E12" s="3">
-        <v>47500</v>
+        <v>50600</v>
       </c>
       <c r="F12" s="3">
-        <v>52600</v>
+        <v>49300</v>
       </c>
       <c r="G12" s="3">
-        <v>42600</v>
+        <v>54700</v>
       </c>
       <c r="H12" s="3">
-        <v>40100</v>
+        <v>44300</v>
       </c>
       <c r="I12" s="3">
-        <v>29600</v>
+        <v>41600</v>
       </c>
       <c r="J12" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K12" s="3">
         <v>26400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,96 +982,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17700</v>
+        <v>1045800</v>
       </c>
       <c r="E14" s="3">
-        <v>24400</v>
+        <v>18300</v>
       </c>
       <c r="F14" s="3">
-        <v>21700</v>
+        <v>25300</v>
       </c>
       <c r="G14" s="3">
-        <v>25300</v>
+        <v>22500</v>
       </c>
       <c r="H14" s="3">
-        <v>12000</v>
+        <v>26300</v>
       </c>
       <c r="I14" s="3">
-        <v>2900</v>
+        <v>12500</v>
       </c>
       <c r="J14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>38500</v>
+        <v>39800</v>
       </c>
       <c r="E15" s="3">
-        <v>38800</v>
+        <v>40000</v>
       </c>
       <c r="F15" s="3">
-        <v>39900</v>
+        <v>40300</v>
       </c>
       <c r="G15" s="3">
-        <v>38900</v>
+        <v>41400</v>
       </c>
       <c r="H15" s="3">
-        <v>34400</v>
+        <v>40400</v>
       </c>
       <c r="I15" s="3">
-        <v>26000</v>
+        <v>35700</v>
       </c>
       <c r="J15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K15" s="3">
         <v>20600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1094,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>360300</v>
+        <v>1400900</v>
       </c>
       <c r="E17" s="3">
-        <v>371300</v>
+        <v>374000</v>
       </c>
       <c r="F17" s="3">
-        <v>346800</v>
+        <v>385500</v>
       </c>
       <c r="G17" s="3">
-        <v>307900</v>
+        <v>360100</v>
       </c>
       <c r="H17" s="3">
-        <v>277000</v>
+        <v>319700</v>
       </c>
       <c r="I17" s="3">
-        <v>222500</v>
+        <v>287600</v>
       </c>
       <c r="J17" s="3">
+        <v>231000</v>
+      </c>
+      <c r="K17" s="3">
         <v>167200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-115600</v>
+        <v>-1140000</v>
       </c>
       <c r="E18" s="3">
-        <v>-139700</v>
+        <v>-120000</v>
       </c>
       <c r="F18" s="3">
-        <v>-151600</v>
+        <v>-145000</v>
       </c>
       <c r="G18" s="3">
-        <v>-104600</v>
+        <v>-157400</v>
       </c>
       <c r="H18" s="3">
-        <v>-99600</v>
+        <v>-108600</v>
       </c>
       <c r="I18" s="3">
-        <v>-68200</v>
+        <v>-103400</v>
       </c>
       <c r="J18" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-57400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-57700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1207,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7200</v>
+        <v>12100</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>7400</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="G20" s="3">
         <v>2300</v>
       </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="I20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-69900</v>
+        <v>-1088100</v>
       </c>
       <c r="E21" s="3">
-        <v>-97300</v>
+        <v>-72600</v>
       </c>
       <c r="F21" s="3">
-        <v>-109500</v>
+        <v>-101000</v>
       </c>
       <c r="G21" s="3">
-        <v>-63300</v>
+        <v>-113600</v>
       </c>
       <c r="H21" s="3">
-        <v>-63300</v>
+        <v>-65700</v>
       </c>
       <c r="I21" s="3">
-        <v>-40800</v>
+        <v>-65800</v>
       </c>
       <c r="J21" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-35600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-44300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>900</v>
       </c>
       <c r="L22" s="3">
         <v>900</v>
       </c>
       <c r="M22" s="3">
+        <v>900</v>
+      </c>
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-109200</v>
+        <v>-1128600</v>
       </c>
       <c r="E23" s="3">
-        <v>-137000</v>
+        <v>-113300</v>
       </c>
       <c r="F23" s="3">
-        <v>-150300</v>
+        <v>-142300</v>
       </c>
       <c r="G23" s="3">
-        <v>-103200</v>
+        <v>-156000</v>
       </c>
       <c r="H23" s="3">
-        <v>-98600</v>
+        <v>-107200</v>
       </c>
       <c r="I23" s="3">
-        <v>-67800</v>
+        <v>-102400</v>
       </c>
       <c r="J23" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-57200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-57700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-2700</v>
+        <v>-1900</v>
       </c>
       <c r="E24" s="3">
         <v>-2800</v>
       </c>
       <c r="F24" s="3">
-        <v>2200</v>
+        <v>-2900</v>
       </c>
       <c r="G24" s="3">
-        <v>-16000</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <v>-19900</v>
+        <v>-16600</v>
       </c>
       <c r="I24" s="3">
-        <v>-2100</v>
+        <v>-20700</v>
       </c>
       <c r="J24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1487,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-106500</v>
+        <v>-1126600</v>
       </c>
       <c r="E26" s="3">
-        <v>-134200</v>
+        <v>-110500</v>
       </c>
       <c r="F26" s="3">
-        <v>-152500</v>
+        <v>-139400</v>
       </c>
       <c r="G26" s="3">
-        <v>-87200</v>
+        <v>-158300</v>
       </c>
       <c r="H26" s="3">
-        <v>-78700</v>
+        <v>-90600</v>
       </c>
       <c r="I26" s="3">
-        <v>-65700</v>
+        <v>-81700</v>
       </c>
       <c r="J26" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-56000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-55100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-106500</v>
+        <v>-1126600</v>
       </c>
       <c r="E27" s="3">
-        <v>-134200</v>
+        <v>-110500</v>
       </c>
       <c r="F27" s="3">
-        <v>-152500</v>
+        <v>-139400</v>
       </c>
       <c r="G27" s="3">
-        <v>-87200</v>
+        <v>-158300</v>
       </c>
       <c r="H27" s="3">
-        <v>-78700</v>
+        <v>-90600</v>
       </c>
       <c r="I27" s="3">
-        <v>-65700</v>
+        <v>-81700</v>
       </c>
       <c r="J27" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-56000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-55100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1769,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-7200</v>
+        <v>-12100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-7400</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>-3700</v>
       </c>
       <c r="G32" s="3">
         <v>-2300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>-2400</v>
       </c>
       <c r="I32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-106500</v>
+        <v>-1126600</v>
       </c>
       <c r="E33" s="3">
-        <v>-134200</v>
+        <v>-110500</v>
       </c>
       <c r="F33" s="3">
-        <v>-152500</v>
+        <v>-139400</v>
       </c>
       <c r="G33" s="3">
-        <v>-87200</v>
+        <v>-158300</v>
       </c>
       <c r="H33" s="3">
-        <v>-78700</v>
+        <v>-90600</v>
       </c>
       <c r="I33" s="3">
-        <v>-65700</v>
+        <v>-81700</v>
       </c>
       <c r="J33" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-56000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-55100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1910,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-106500</v>
+        <v>-1126600</v>
       </c>
       <c r="E35" s="3">
-        <v>-134200</v>
+        <v>-110500</v>
       </c>
       <c r="F35" s="3">
-        <v>-152500</v>
+        <v>-139400</v>
       </c>
       <c r="G35" s="3">
-        <v>-87200</v>
+        <v>-158300</v>
       </c>
       <c r="H35" s="3">
-        <v>-78700</v>
+        <v>-90600</v>
       </c>
       <c r="I35" s="3">
-        <v>-65700</v>
+        <v>-81700</v>
       </c>
       <c r="J35" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-56000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-55100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,52 +2049,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1148800</v>
+        <v>1158900</v>
       </c>
       <c r="E41" s="3">
-        <v>1218300</v>
+        <v>1192700</v>
       </c>
       <c r="F41" s="3">
-        <v>1270100</v>
+        <v>1264900</v>
       </c>
       <c r="G41" s="3">
-        <v>1287400</v>
+        <v>1318600</v>
       </c>
       <c r="H41" s="3">
-        <v>1571800</v>
+        <v>1336600</v>
       </c>
       <c r="I41" s="3">
-        <v>804000</v>
+        <v>1631800</v>
       </c>
       <c r="J41" s="3">
+        <v>834800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1075000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>669300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>265500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>268700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>162500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2052,214 +2141,229 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>84700</v>
+        <v>105300</v>
       </c>
       <c r="E43" s="3">
-        <v>68000</v>
+        <v>87900</v>
       </c>
       <c r="F43" s="3">
-        <v>61000</v>
+        <v>70600</v>
       </c>
       <c r="G43" s="3">
-        <v>67500</v>
+        <v>63300</v>
       </c>
       <c r="H43" s="3">
-        <v>42700</v>
+        <v>70100</v>
       </c>
       <c r="I43" s="3">
-        <v>35700</v>
+        <v>44300</v>
       </c>
       <c r="J43" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>13300</v>
+        <v>14000</v>
       </c>
       <c r="E44" s="3">
-        <v>11400</v>
+        <v>13800</v>
       </c>
       <c r="F44" s="3">
-        <v>10000</v>
+        <v>11900</v>
       </c>
       <c r="G44" s="3">
-        <v>5900</v>
+        <v>10400</v>
       </c>
       <c r="H44" s="3">
-        <v>3900</v>
+        <v>6200</v>
       </c>
       <c r="I44" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="J44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>33400</v>
+        <v>36500</v>
       </c>
       <c r="E45" s="3">
-        <v>40000</v>
+        <v>34700</v>
       </c>
       <c r="F45" s="3">
-        <v>47300</v>
+        <v>41600</v>
       </c>
       <c r="G45" s="3">
-        <v>46800</v>
+        <v>49100</v>
       </c>
       <c r="H45" s="3">
-        <v>25700</v>
+        <v>48600</v>
       </c>
       <c r="I45" s="3">
-        <v>35800</v>
+        <v>26700</v>
       </c>
       <c r="J45" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K45" s="3">
         <v>32200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1280200</v>
+        <v>1314600</v>
       </c>
       <c r="E46" s="3">
-        <v>1337800</v>
+        <v>1329100</v>
       </c>
       <c r="F46" s="3">
-        <v>1388400</v>
+        <v>1388900</v>
       </c>
       <c r="G46" s="3">
-        <v>1407600</v>
+        <v>1441500</v>
       </c>
       <c r="H46" s="3">
-        <v>1644000</v>
+        <v>1461400</v>
       </c>
       <c r="I46" s="3">
-        <v>880000</v>
+        <v>1706900</v>
       </c>
       <c r="J46" s="3">
+        <v>913700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1142200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>360300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>703700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>292100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>297100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>186200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>13000</v>
+        <v>15300</v>
       </c>
       <c r="E47" s="3">
-        <v>12200</v>
+        <v>13500</v>
       </c>
       <c r="F47" s="3">
-        <v>7400</v>
+        <v>12700</v>
       </c>
       <c r="G47" s="3">
-        <v>5800</v>
+        <v>7700</v>
       </c>
       <c r="H47" s="3">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="I47" s="3">
-        <v>3300</v>
+        <v>4600</v>
       </c>
       <c r="J47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -2272,96 +2376,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>55500</v>
+        <v>57900</v>
       </c>
       <c r="E48" s="3">
-        <v>55400</v>
+        <v>57700</v>
       </c>
       <c r="F48" s="3">
-        <v>55900</v>
+        <v>57500</v>
       </c>
       <c r="G48" s="3">
-        <v>57600</v>
+        <v>58100</v>
       </c>
       <c r="H48" s="3">
-        <v>49400</v>
+        <v>59800</v>
       </c>
       <c r="I48" s="3">
-        <v>46200</v>
+        <v>51300</v>
       </c>
       <c r="J48" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K48" s="3">
         <v>39400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3260600</v>
+        <v>2329300</v>
       </c>
       <c r="E49" s="3">
-        <v>3302800</v>
+        <v>3385200</v>
       </c>
       <c r="F49" s="3">
-        <v>3348100</v>
+        <v>3429000</v>
       </c>
       <c r="G49" s="3">
-        <v>3381800</v>
+        <v>3476000</v>
       </c>
       <c r="H49" s="3">
-        <v>2602400</v>
+        <v>3511000</v>
       </c>
       <c r="I49" s="3">
-        <v>2098100</v>
+        <v>2701900</v>
       </c>
       <c r="J49" s="3">
+        <v>2178300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1606700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1585400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>279000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>276600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>266800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>138100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2564,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>22400</v>
+        <v>25300</v>
       </c>
       <c r="E52" s="3">
         <v>23200</v>
       </c>
       <c r="F52" s="3">
-        <v>21300</v>
+        <v>24100</v>
       </c>
       <c r="G52" s="3">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="H52" s="3">
-        <v>18400</v>
+        <v>23100</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>19100</v>
       </c>
       <c r="J52" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K52" s="3">
         <v>12600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2658,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>4631700</v>
+        <v>3742500</v>
       </c>
       <c r="E54" s="3">
-        <v>4731400</v>
+        <v>4808700</v>
       </c>
       <c r="F54" s="3">
-        <v>4821100</v>
+        <v>4912200</v>
       </c>
       <c r="G54" s="3">
-        <v>4875000</v>
+        <v>5005300</v>
       </c>
       <c r="H54" s="3">
-        <v>4318700</v>
+        <v>5061300</v>
       </c>
       <c r="I54" s="3">
-        <v>3044200</v>
+        <v>4483800</v>
       </c>
       <c r="J54" s="3">
+        <v>3160500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2803900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1999000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1020100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>614100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>609400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>356800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2745,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>49300</v>
+        <v>50900</v>
       </c>
       <c r="E57" s="3">
-        <v>49100</v>
+        <v>51200</v>
       </c>
       <c r="F57" s="3">
-        <v>52300</v>
+        <v>50900</v>
       </c>
       <c r="G57" s="3">
-        <v>43300</v>
+        <v>54300</v>
       </c>
       <c r="H57" s="3">
-        <v>49100</v>
+        <v>45000</v>
       </c>
       <c r="I57" s="3">
-        <v>45400</v>
+        <v>51000</v>
       </c>
       <c r="J57" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K57" s="3">
         <v>29400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="E58" s="3">
-        <v>49500</v>
+        <v>9400</v>
       </c>
       <c r="F58" s="3">
-        <v>10200</v>
+        <v>51400</v>
       </c>
       <c r="G58" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="H58" s="3">
-        <v>9400</v>
+        <v>10400</v>
       </c>
       <c r="I58" s="3">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="J58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K58" s="3">
         <v>6800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>141200</v>
+        <v>139900</v>
       </c>
       <c r="E59" s="3">
-        <v>142500</v>
+        <v>146600</v>
       </c>
       <c r="F59" s="3">
-        <v>147800</v>
+        <v>148000</v>
       </c>
       <c r="G59" s="3">
-        <v>140600</v>
+        <v>153400</v>
       </c>
       <c r="H59" s="3">
-        <v>134000</v>
+        <v>146000</v>
       </c>
       <c r="I59" s="3">
-        <v>125100</v>
+        <v>139100</v>
       </c>
       <c r="J59" s="3">
+        <v>129900</v>
+      </c>
+      <c r="K59" s="3">
         <v>114800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>111900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>67100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>199600</v>
+        <v>200400</v>
       </c>
       <c r="E60" s="3">
-        <v>241100</v>
+        <v>207200</v>
       </c>
       <c r="F60" s="3">
-        <v>210200</v>
+        <v>250300</v>
       </c>
       <c r="G60" s="3">
-        <v>193900</v>
+        <v>218300</v>
       </c>
       <c r="H60" s="3">
-        <v>192500</v>
+        <v>201300</v>
       </c>
       <c r="I60" s="3">
-        <v>179300</v>
+        <v>199900</v>
       </c>
       <c r="J60" s="3">
+        <v>186200</v>
+      </c>
+      <c r="K60" s="3">
         <v>151000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>151900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>88400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>25800</v>
+        <v>26900</v>
       </c>
       <c r="E61" s="3">
-        <v>27800</v>
+        <v>26700</v>
       </c>
       <c r="F61" s="3">
-        <v>70400</v>
+        <v>28800</v>
       </c>
       <c r="G61" s="3">
-        <v>72900</v>
+        <v>73100</v>
       </c>
       <c r="H61" s="3">
-        <v>70300</v>
+        <v>75700</v>
       </c>
       <c r="I61" s="3">
-        <v>70900</v>
+        <v>73000</v>
       </c>
       <c r="J61" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K61" s="3">
         <v>67000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>64700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>56400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>55100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="E62" s="3">
-        <v>9800</v>
+        <v>5700</v>
       </c>
       <c r="F62" s="3">
-        <v>13300</v>
+        <v>10100</v>
       </c>
       <c r="G62" s="3">
-        <v>10100</v>
+        <v>13800</v>
       </c>
       <c r="H62" s="3">
-        <v>18000</v>
+        <v>10400</v>
       </c>
       <c r="I62" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="J62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3166,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>230900</v>
+        <v>231100</v>
       </c>
       <c r="E66" s="3">
-        <v>278600</v>
+        <v>239700</v>
       </c>
       <c r="F66" s="3">
-        <v>293900</v>
+        <v>289300</v>
       </c>
       <c r="G66" s="3">
-        <v>276900</v>
+        <v>305100</v>
       </c>
       <c r="H66" s="3">
-        <v>280900</v>
+        <v>287500</v>
       </c>
       <c r="I66" s="3">
-        <v>269500</v>
+        <v>291600</v>
       </c>
       <c r="J66" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K66" s="3">
         <v>227800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>231900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>169400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>168400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>171100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3420,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-1474200</v>
+        <v>-2657200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1367700</v>
+        <v>-1530600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1233500</v>
+        <v>-1420000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1081000</v>
+        <v>-1280600</v>
       </c>
       <c r="H72" s="3">
-        <v>-993800</v>
+        <v>-1122300</v>
       </c>
       <c r="I72" s="3">
-        <v>-915100</v>
+        <v>-1031700</v>
       </c>
       <c r="J72" s="3">
+        <v>-950000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-849400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-769900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-721400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-696000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-654100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-634700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3608,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4400800</v>
+        <v>3511400</v>
       </c>
       <c r="E76" s="3">
-        <v>4452800</v>
+        <v>4569000</v>
       </c>
       <c r="F76" s="3">
-        <v>4527200</v>
+        <v>4623000</v>
       </c>
       <c r="G76" s="3">
-        <v>4598100</v>
+        <v>4700200</v>
       </c>
       <c r="H76" s="3">
-        <v>4037800</v>
+        <v>4773800</v>
       </c>
       <c r="I76" s="3">
-        <v>2774600</v>
+        <v>4192200</v>
       </c>
       <c r="J76" s="3">
+        <v>2880700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2576100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1767100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>850600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>445600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>438400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>246800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3702,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-106500</v>
+        <v>-1126600</v>
       </c>
       <c r="E81" s="3">
-        <v>-134200</v>
+        <v>-110500</v>
       </c>
       <c r="F81" s="3">
-        <v>-152500</v>
+        <v>-139400</v>
       </c>
       <c r="G81" s="3">
-        <v>-87200</v>
+        <v>-158300</v>
       </c>
       <c r="H81" s="3">
-        <v>-78700</v>
+        <v>-90600</v>
       </c>
       <c r="I81" s="3">
-        <v>-65700</v>
+        <v>-81700</v>
       </c>
       <c r="J81" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-56000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-55100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +3822,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>38500</v>
+        <v>39800</v>
       </c>
       <c r="E83" s="3">
-        <v>38800</v>
+        <v>40000</v>
       </c>
       <c r="F83" s="3">
-        <v>39900</v>
+        <v>40300</v>
       </c>
       <c r="G83" s="3">
-        <v>38900</v>
+        <v>41400</v>
       </c>
       <c r="H83" s="3">
-        <v>34400</v>
+        <v>40400</v>
       </c>
       <c r="I83" s="3">
-        <v>26000</v>
+        <v>35700</v>
       </c>
       <c r="J83" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K83" s="3">
         <v>20600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4102,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-31800</v>
+        <v>-36500</v>
       </c>
       <c r="E89" s="3">
-        <v>-44500</v>
+        <v>-33000</v>
       </c>
       <c r="F89" s="3">
-        <v>-15100</v>
+        <v>-46200</v>
       </c>
       <c r="G89" s="3">
-        <v>-64200</v>
+        <v>-15700</v>
       </c>
       <c r="H89" s="3">
-        <v>-17400</v>
+        <v>-66700</v>
       </c>
       <c r="I89" s="3">
-        <v>-19500</v>
+        <v>-18000</v>
       </c>
       <c r="J89" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-32100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-70000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,8 +4170,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3960,43 +4180,46 @@
         <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>-4100</v>
+        <v>-2900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2500</v>
+        <v>-4300</v>
       </c>
       <c r="G91" s="3">
-        <v>-6900</v>
+        <v>-2600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3100</v>
+        <v>-7200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1600</v>
+        <v>-3200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1700</v>
       </c>
       <c r="O91" s="3">
         <v>-1700</v>
       </c>
       <c r="P91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4309,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2900</v>
+        <v>2600</v>
       </c>
       <c r="F94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-218800</v>
-      </c>
       <c r="H94" s="3">
-        <v>-276700</v>
+        <v>-227100</v>
       </c>
       <c r="I94" s="3">
-        <v>-255300</v>
+        <v>-287300</v>
       </c>
       <c r="J94" s="3">
+        <v>-265100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-301100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4189,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4563,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-38400</v>
+        <v>-3300</v>
       </c>
       <c r="E100" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H100" s="3">
-        <v>1062900</v>
+        <v>-1500</v>
       </c>
       <c r="I100" s="3">
-        <v>3700</v>
+        <v>1103500</v>
       </c>
       <c r="J100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K100" s="3">
         <v>798500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>412300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>195800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-1800</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
         <v>-1900</v>
       </c>
       <c r="F101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1100</v>
-      </c>
       <c r="I101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>800</v>
       </c>
       <c r="M101" s="3">
         <v>800</v>
       </c>
       <c r="N101" s="3">
+        <v>800</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-69500</v>
+        <v>-33800</v>
       </c>
       <c r="E102" s="3">
-        <v>-51800</v>
+        <v>-72200</v>
       </c>
       <c r="F102" s="3">
-        <v>-17300</v>
+        <v>-53700</v>
       </c>
       <c r="G102" s="3">
-        <v>-284400</v>
+        <v>-18000</v>
       </c>
       <c r="H102" s="3">
-        <v>767700</v>
+        <v>-295200</v>
       </c>
       <c r="I102" s="3">
-        <v>-270900</v>
+        <v>797100</v>
       </c>
       <c r="J102" s="3">
+        <v>-281300</v>
+      </c>
+      <c r="K102" s="3">
         <v>765100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-362500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>403900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>107400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,218 +662,231 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>260900</v>
+        <v>248700</v>
       </c>
       <c r="E8" s="3">
-        <v>254000</v>
+        <v>254700</v>
       </c>
       <c r="F8" s="3">
-        <v>240500</v>
+        <v>248000</v>
       </c>
       <c r="G8" s="3">
-        <v>202700</v>
+        <v>234800</v>
       </c>
       <c r="H8" s="3">
-        <v>211100</v>
+        <v>197900</v>
       </c>
       <c r="I8" s="3">
-        <v>184200</v>
+        <v>206100</v>
       </c>
       <c r="J8" s="3">
+        <v>179800</v>
+      </c>
+      <c r="K8" s="3">
         <v>160300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>109700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>59400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>142000</v>
+        <v>132200</v>
       </c>
       <c r="E9" s="3">
-        <v>141400</v>
+        <v>138600</v>
       </c>
       <c r="F9" s="3">
-        <v>133200</v>
+        <v>138000</v>
       </c>
       <c r="G9" s="3">
-        <v>107900</v>
+        <v>130100</v>
       </c>
       <c r="H9" s="3">
-        <v>101900</v>
+        <v>105400</v>
       </c>
       <c r="I9" s="3">
-        <v>94400</v>
+        <v>99500</v>
       </c>
       <c r="J9" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K9" s="3">
         <v>80700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>118900</v>
+        <v>116500</v>
       </c>
       <c r="E10" s="3">
-        <v>112600</v>
+        <v>116100</v>
       </c>
       <c r="F10" s="3">
-        <v>107200</v>
+        <v>110000</v>
       </c>
       <c r="G10" s="3">
-        <v>94800</v>
+        <v>104700</v>
       </c>
       <c r="H10" s="3">
-        <v>109300</v>
+        <v>92500</v>
       </c>
       <c r="I10" s="3">
-        <v>89800</v>
+        <v>106700</v>
       </c>
       <c r="J10" s="3">
+        <v>87700</v>
+      </c>
+      <c r="K10" s="3">
         <v>79600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,55 +904,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>51700</v>
+        <v>45600</v>
       </c>
       <c r="E12" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="F12" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="G12" s="3">
-        <v>54700</v>
+        <v>48100</v>
       </c>
       <c r="H12" s="3">
-        <v>44300</v>
+        <v>53400</v>
       </c>
       <c r="I12" s="3">
-        <v>41600</v>
+        <v>43200</v>
       </c>
       <c r="J12" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K12" s="3">
         <v>30700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,102 +1002,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1045800</v>
+        <v>36200</v>
       </c>
       <c r="E14" s="3">
-        <v>18300</v>
+        <v>1021000</v>
       </c>
       <c r="F14" s="3">
-        <v>25300</v>
+        <v>17900</v>
       </c>
       <c r="G14" s="3">
-        <v>22500</v>
+        <v>24700</v>
       </c>
       <c r="H14" s="3">
-        <v>26300</v>
+        <v>22000</v>
       </c>
       <c r="I14" s="3">
-        <v>12500</v>
+        <v>25700</v>
       </c>
       <c r="J14" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>39800</v>
+        <v>38300</v>
       </c>
       <c r="E15" s="3">
-        <v>40000</v>
+        <v>38900</v>
       </c>
       <c r="F15" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="G15" s="3">
-        <v>41400</v>
+        <v>39300</v>
       </c>
       <c r="H15" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="I15" s="3">
-        <v>35700</v>
+        <v>39500</v>
       </c>
       <c r="J15" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K15" s="3">
         <v>27000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1400900</v>
+        <v>360500</v>
       </c>
       <c r="E17" s="3">
-        <v>374000</v>
+        <v>1367800</v>
       </c>
       <c r="F17" s="3">
-        <v>385500</v>
+        <v>365200</v>
       </c>
       <c r="G17" s="3">
-        <v>360100</v>
+        <v>376300</v>
       </c>
       <c r="H17" s="3">
-        <v>319700</v>
+        <v>351600</v>
       </c>
       <c r="I17" s="3">
-        <v>287600</v>
+        <v>312200</v>
       </c>
       <c r="J17" s="3">
+        <v>280800</v>
+      </c>
+      <c r="K17" s="3">
         <v>231000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>167200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1140000</v>
+        <v>-111900</v>
       </c>
       <c r="E18" s="3">
-        <v>-120000</v>
+        <v>-1113100</v>
       </c>
       <c r="F18" s="3">
-        <v>-145000</v>
+        <v>-117200</v>
       </c>
       <c r="G18" s="3">
-        <v>-157400</v>
+        <v>-141600</v>
       </c>
       <c r="H18" s="3">
-        <v>-108600</v>
+        <v>-153600</v>
       </c>
       <c r="I18" s="3">
-        <v>-103400</v>
+        <v>-106000</v>
       </c>
       <c r="J18" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-70800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-57400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-57700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1208,243 +1241,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>12100</v>
+        <v>13600</v>
       </c>
       <c r="E20" s="3">
-        <v>7400</v>
+        <v>11800</v>
       </c>
       <c r="F20" s="3">
-        <v>3700</v>
+        <v>7300</v>
       </c>
       <c r="G20" s="3">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
-        <v>2000</v>
-      </c>
       <c r="J20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-1088100</v>
+        <v>-60000</v>
       </c>
       <c r="E21" s="3">
-        <v>-72600</v>
+        <v>-1062400</v>
       </c>
       <c r="F21" s="3">
-        <v>-101000</v>
+        <v>-70900</v>
       </c>
       <c r="G21" s="3">
-        <v>-113600</v>
+        <v>-98600</v>
       </c>
       <c r="H21" s="3">
-        <v>-65700</v>
+        <v>-111000</v>
       </c>
       <c r="I21" s="3">
-        <v>-65800</v>
+        <v>-64200</v>
       </c>
       <c r="J21" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-42400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-44300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>900</v>
       </c>
       <c r="M22" s="3">
         <v>900</v>
       </c>
       <c r="N22" s="3">
+        <v>900</v>
+      </c>
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1128600</v>
+        <v>-98800</v>
       </c>
       <c r="E23" s="3">
-        <v>-113300</v>
+        <v>-1101900</v>
       </c>
       <c r="F23" s="3">
-        <v>-142300</v>
+        <v>-110700</v>
       </c>
       <c r="G23" s="3">
-        <v>-156000</v>
+        <v>-138900</v>
       </c>
       <c r="H23" s="3">
-        <v>-107200</v>
+        <v>-152300</v>
       </c>
       <c r="I23" s="3">
-        <v>-102400</v>
+        <v>-104700</v>
       </c>
       <c r="J23" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-70400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-57200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2800</v>
       </c>
-      <c r="F24" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
-        <v>-16600</v>
-      </c>
       <c r="I24" s="3">
-        <v>-20700</v>
+        <v>-16200</v>
       </c>
       <c r="J24" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1490,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1126600</v>
+        <v>-100500</v>
       </c>
       <c r="E26" s="3">
-        <v>-110500</v>
+        <v>-1100000</v>
       </c>
       <c r="F26" s="3">
-        <v>-139400</v>
+        <v>-107900</v>
       </c>
       <c r="G26" s="3">
-        <v>-158300</v>
+        <v>-136100</v>
       </c>
       <c r="H26" s="3">
-        <v>-90600</v>
+        <v>-154600</v>
       </c>
       <c r="I26" s="3">
-        <v>-81700</v>
+        <v>-88400</v>
       </c>
       <c r="J26" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-68200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-55100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1126600</v>
+        <v>-100500</v>
       </c>
       <c r="E27" s="3">
-        <v>-110500</v>
+        <v>-1100000</v>
       </c>
       <c r="F27" s="3">
-        <v>-139400</v>
+        <v>-107900</v>
       </c>
       <c r="G27" s="3">
-        <v>-158300</v>
+        <v>-136100</v>
       </c>
       <c r="H27" s="3">
-        <v>-90600</v>
+        <v>-154600</v>
       </c>
       <c r="I27" s="3">
-        <v>-81700</v>
+        <v>-88400</v>
       </c>
       <c r="J27" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-68200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-55100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1631,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1678,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1772,102 +1839,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-12100</v>
+        <v>-13600</v>
       </c>
       <c r="E32" s="3">
-        <v>-7400</v>
+        <v>-11800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3700</v>
+        <v>-7300</v>
       </c>
       <c r="G32" s="3">
-        <v>-2300</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2000</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-1126600</v>
+        <v>-100500</v>
       </c>
       <c r="E33" s="3">
-        <v>-110500</v>
+        <v>-1100000</v>
       </c>
       <c r="F33" s="3">
-        <v>-139400</v>
+        <v>-107900</v>
       </c>
       <c r="G33" s="3">
-        <v>-158300</v>
+        <v>-136100</v>
       </c>
       <c r="H33" s="3">
-        <v>-90600</v>
+        <v>-154600</v>
       </c>
       <c r="I33" s="3">
-        <v>-81700</v>
+        <v>-88400</v>
       </c>
       <c r="J33" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-68200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-56000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-55100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1913,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-1126600</v>
+        <v>-100500</v>
       </c>
       <c r="E35" s="3">
-        <v>-110500</v>
+        <v>-1100000</v>
       </c>
       <c r="F35" s="3">
-        <v>-139400</v>
+        <v>-107900</v>
       </c>
       <c r="G35" s="3">
-        <v>-158300</v>
+        <v>-136100</v>
       </c>
       <c r="H35" s="3">
-        <v>-90600</v>
+        <v>-154600</v>
       </c>
       <c r="I35" s="3">
-        <v>-81700</v>
+        <v>-88400</v>
       </c>
       <c r="J35" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-68200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-56000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-55100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2031,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2050,55 +2136,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1158900</v>
+        <v>1080200</v>
       </c>
       <c r="E41" s="3">
-        <v>1192700</v>
+        <v>1131500</v>
       </c>
       <c r="F41" s="3">
-        <v>1264900</v>
+        <v>1164500</v>
       </c>
       <c r="G41" s="3">
-        <v>1318600</v>
+        <v>1235000</v>
       </c>
       <c r="H41" s="3">
-        <v>1336600</v>
+        <v>1287400</v>
       </c>
       <c r="I41" s="3">
-        <v>1631800</v>
+        <v>1305000</v>
       </c>
       <c r="J41" s="3">
+        <v>1593200</v>
+      </c>
+      <c r="K41" s="3">
         <v>834800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1075000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>669300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>265500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>268700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>162500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2144,229 +2234,244 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>105300</v>
+        <v>113900</v>
       </c>
       <c r="E43" s="3">
-        <v>87900</v>
+        <v>102800</v>
       </c>
       <c r="F43" s="3">
-        <v>70600</v>
+        <v>85800</v>
       </c>
       <c r="G43" s="3">
-        <v>63300</v>
+        <v>69000</v>
       </c>
       <c r="H43" s="3">
-        <v>70100</v>
+        <v>61800</v>
       </c>
       <c r="I43" s="3">
-        <v>44300</v>
+        <v>68500</v>
       </c>
       <c r="J43" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K43" s="3">
         <v>37000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14000</v>
+        <v>17300</v>
       </c>
       <c r="E44" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="F44" s="3">
-        <v>11900</v>
+        <v>13500</v>
       </c>
       <c r="G44" s="3">
-        <v>10400</v>
+        <v>11600</v>
       </c>
       <c r="H44" s="3">
-        <v>6200</v>
+        <v>10200</v>
       </c>
       <c r="I44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>36500</v>
+        <v>50000</v>
       </c>
       <c r="E45" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="F45" s="3">
-        <v>41600</v>
+        <v>33900</v>
       </c>
       <c r="G45" s="3">
-        <v>49100</v>
+        <v>40600</v>
       </c>
       <c r="H45" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="I45" s="3">
-        <v>26700</v>
+        <v>47400</v>
       </c>
       <c r="J45" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K45" s="3">
         <v>37200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1314600</v>
+        <v>1261300</v>
       </c>
       <c r="E46" s="3">
-        <v>1329100</v>
+        <v>1283500</v>
       </c>
       <c r="F46" s="3">
-        <v>1388900</v>
+        <v>1297700</v>
       </c>
       <c r="G46" s="3">
-        <v>1441500</v>
+        <v>1356100</v>
       </c>
       <c r="H46" s="3">
-        <v>1461400</v>
+        <v>1407400</v>
       </c>
       <c r="I46" s="3">
-        <v>1706900</v>
+        <v>1426900</v>
       </c>
       <c r="J46" s="3">
+        <v>1666500</v>
+      </c>
+      <c r="K46" s="3">
         <v>913700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1142200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>360300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>703700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>292100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>297100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>186200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>15300</v>
+        <v>16500</v>
       </c>
       <c r="E47" s="3">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="F47" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="G47" s="3">
-        <v>7700</v>
+        <v>12400</v>
       </c>
       <c r="H47" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="I47" s="3">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="J47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
@@ -2379,102 +2484,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>57900</v>
+        <v>54600</v>
       </c>
       <c r="E48" s="3">
-        <v>57700</v>
+        <v>56600</v>
       </c>
       <c r="F48" s="3">
-        <v>57500</v>
+        <v>56300</v>
       </c>
       <c r="G48" s="3">
-        <v>58100</v>
+        <v>56100</v>
       </c>
       <c r="H48" s="3">
-        <v>59800</v>
+        <v>56700</v>
       </c>
       <c r="I48" s="3">
-        <v>51300</v>
+        <v>58300</v>
       </c>
       <c r="J48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K48" s="3">
         <v>48000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2329300</v>
+        <v>2243800</v>
       </c>
       <c r="E49" s="3">
-        <v>3385200</v>
+        <v>2274200</v>
       </c>
       <c r="F49" s="3">
-        <v>3429000</v>
+        <v>3305100</v>
       </c>
       <c r="G49" s="3">
-        <v>3476000</v>
+        <v>3347900</v>
       </c>
       <c r="H49" s="3">
-        <v>3511000</v>
+        <v>3393800</v>
       </c>
       <c r="I49" s="3">
-        <v>2701900</v>
+        <v>3428000</v>
       </c>
       <c r="J49" s="3">
+        <v>2638000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2178300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1606700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1585400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>279000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>276600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>266800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>138100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2520,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2567,55 +2684,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>25300</v>
+        <v>26500</v>
       </c>
       <c r="E52" s="3">
-        <v>23200</v>
+        <v>24700</v>
       </c>
       <c r="F52" s="3">
-        <v>24100</v>
+        <v>22700</v>
       </c>
       <c r="G52" s="3">
-        <v>22100</v>
+        <v>23500</v>
       </c>
       <c r="H52" s="3">
-        <v>23100</v>
+        <v>21600</v>
       </c>
       <c r="I52" s="3">
-        <v>19100</v>
+        <v>22500</v>
       </c>
       <c r="J52" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K52" s="3">
         <v>17100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2661,55 +2784,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3742500</v>
+        <v>3602800</v>
       </c>
       <c r="E54" s="3">
-        <v>4808700</v>
+        <v>3654000</v>
       </c>
       <c r="F54" s="3">
-        <v>4912200</v>
+        <v>4695000</v>
       </c>
       <c r="G54" s="3">
-        <v>5005300</v>
+        <v>4796100</v>
       </c>
       <c r="H54" s="3">
-        <v>5061300</v>
+        <v>4887000</v>
       </c>
       <c r="I54" s="3">
-        <v>4483800</v>
+        <v>4941600</v>
       </c>
       <c r="J54" s="3">
+        <v>4377700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3160500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2803900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1999000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1020100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>614100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>609400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>356800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2727,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2746,290 +2876,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>50900</v>
+        <v>49900</v>
       </c>
       <c r="E57" s="3">
-        <v>51200</v>
+        <v>49700</v>
       </c>
       <c r="F57" s="3">
-        <v>50900</v>
+        <v>50000</v>
       </c>
       <c r="G57" s="3">
-        <v>54300</v>
+        <v>49700</v>
       </c>
       <c r="H57" s="3">
-        <v>45000</v>
+        <v>53000</v>
       </c>
       <c r="I57" s="3">
-        <v>51000</v>
+        <v>43900</v>
       </c>
       <c r="J57" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K57" s="3">
         <v>47100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>50200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J58" s="3">
         <v>9600</v>
       </c>
-      <c r="E58" s="3">
-        <v>9400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>51400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>139900</v>
+        <v>144300</v>
       </c>
       <c r="E59" s="3">
-        <v>146600</v>
+        <v>136600</v>
       </c>
       <c r="F59" s="3">
-        <v>148000</v>
+        <v>143200</v>
       </c>
       <c r="G59" s="3">
-        <v>153400</v>
+        <v>144500</v>
       </c>
       <c r="H59" s="3">
-        <v>146000</v>
+        <v>149800</v>
       </c>
       <c r="I59" s="3">
-        <v>139100</v>
+        <v>142600</v>
       </c>
       <c r="J59" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K59" s="3">
         <v>129900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>111900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>70300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>200400</v>
+        <v>203100</v>
       </c>
       <c r="E60" s="3">
-        <v>207200</v>
+        <v>195700</v>
       </c>
       <c r="F60" s="3">
-        <v>250300</v>
+        <v>202300</v>
       </c>
       <c r="G60" s="3">
-        <v>218300</v>
+        <v>244400</v>
       </c>
       <c r="H60" s="3">
-        <v>201300</v>
+        <v>213100</v>
       </c>
       <c r="I60" s="3">
-        <v>199900</v>
+        <v>196600</v>
       </c>
       <c r="J60" s="3">
+        <v>195100</v>
+      </c>
+      <c r="K60" s="3">
         <v>186200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>151000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>88400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>90200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>82800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="E61" s="3">
-        <v>26700</v>
+        <v>26300</v>
       </c>
       <c r="F61" s="3">
-        <v>28800</v>
+        <v>26100</v>
       </c>
       <c r="G61" s="3">
-        <v>73100</v>
+        <v>28100</v>
       </c>
       <c r="H61" s="3">
-        <v>75700</v>
+        <v>71400</v>
       </c>
       <c r="I61" s="3">
-        <v>73000</v>
+        <v>73900</v>
       </c>
       <c r="J61" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K61" s="3">
         <v>73600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>67000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>64700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>56900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>56400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>55100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
-        <v>5700</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
-        <v>10100</v>
+        <v>5600</v>
       </c>
       <c r="G62" s="3">
-        <v>13800</v>
+        <v>9900</v>
       </c>
       <c r="H62" s="3">
-        <v>10400</v>
+        <v>13400</v>
       </c>
       <c r="I62" s="3">
-        <v>18700</v>
+        <v>10200</v>
       </c>
       <c r="J62" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K62" s="3">
         <v>20000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3075,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3122,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3169,55 +3324,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>231100</v>
+        <v>231200</v>
       </c>
       <c r="E66" s="3">
-        <v>239700</v>
+        <v>225600</v>
       </c>
       <c r="F66" s="3">
-        <v>289300</v>
+        <v>234000</v>
       </c>
       <c r="G66" s="3">
-        <v>305100</v>
+        <v>282400</v>
       </c>
       <c r="H66" s="3">
-        <v>287500</v>
+        <v>297900</v>
       </c>
       <c r="I66" s="3">
-        <v>291600</v>
+        <v>280700</v>
       </c>
       <c r="J66" s="3">
+        <v>284700</v>
+      </c>
+      <c r="K66" s="3">
         <v>279900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>227800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>231900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>169400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>168400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>171100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3235,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3282,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3329,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3376,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3423,55 +3594,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2657200</v>
+        <v>-2694900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1530600</v>
+        <v>-2594300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1420000</v>
+        <v>-1494400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1280600</v>
+        <v>-1386400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1122300</v>
+        <v>-1250400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1031700</v>
+        <v>-1095800</v>
       </c>
       <c r="J72" s="3">
+        <v>-1007300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-950000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-849400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-769900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-721400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-696000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-654100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-634700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3517,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3564,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3611,55 +3794,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3511400</v>
+        <v>3371600</v>
       </c>
       <c r="E76" s="3">
-        <v>4569000</v>
+        <v>3428400</v>
       </c>
       <c r="F76" s="3">
-        <v>4623000</v>
+        <v>4461000</v>
       </c>
       <c r="G76" s="3">
-        <v>4700200</v>
+        <v>4513600</v>
       </c>
       <c r="H76" s="3">
-        <v>4773800</v>
+        <v>4589000</v>
       </c>
       <c r="I76" s="3">
-        <v>4192200</v>
+        <v>4660900</v>
       </c>
       <c r="J76" s="3">
+        <v>4093000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2880700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2576100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1767100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>850600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>445600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>438400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>246800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3705,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-1126600</v>
+        <v>-100500</v>
       </c>
       <c r="E81" s="3">
-        <v>-110500</v>
+        <v>-1100000</v>
       </c>
       <c r="F81" s="3">
-        <v>-139400</v>
+        <v>-107900</v>
       </c>
       <c r="G81" s="3">
-        <v>-158300</v>
+        <v>-136100</v>
       </c>
       <c r="H81" s="3">
-        <v>-90600</v>
+        <v>-154600</v>
       </c>
       <c r="I81" s="3">
-        <v>-81700</v>
+        <v>-88400</v>
       </c>
       <c r="J81" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-68200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-56000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-55100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3823,55 +4021,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>39800</v>
+        <v>38300</v>
       </c>
       <c r="E83" s="3">
-        <v>40000</v>
+        <v>38900</v>
       </c>
       <c r="F83" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="G83" s="3">
-        <v>41400</v>
+        <v>39300</v>
       </c>
       <c r="H83" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="I83" s="3">
-        <v>35700</v>
+        <v>39500</v>
       </c>
       <c r="J83" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K83" s="3">
         <v>27000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3917,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3964,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4011,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4058,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4105,55 +4319,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-36500</v>
+        <v>-56100</v>
       </c>
       <c r="E89" s="3">
-        <v>-33000</v>
+        <v>-35700</v>
       </c>
       <c r="F89" s="3">
-        <v>-46200</v>
+        <v>-32200</v>
       </c>
       <c r="G89" s="3">
-        <v>-15700</v>
+        <v>-45100</v>
       </c>
       <c r="H89" s="3">
-        <v>-66700</v>
+        <v>-15300</v>
       </c>
       <c r="I89" s="3">
-        <v>-18000</v>
+        <v>-65100</v>
       </c>
       <c r="J89" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-70000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4171,55 +4391,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-3500</v>
       </c>
       <c r="E91" s="3">
         <v>-2900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4300</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2600</v>
+        <v>-3700</v>
       </c>
       <c r="H91" s="3">
-        <v>-7200</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3200</v>
+        <v>-5200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1700</v>
       </c>
       <c r="P91" s="3">
         <v>-1700</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4265,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4312,55 +4539,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="E94" s="3">
-        <v>2600</v>
+        <v>4300</v>
       </c>
       <c r="F94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-227100</v>
-      </c>
       <c r="I94" s="3">
-        <v>-287300</v>
+        <v>-221700</v>
       </c>
       <c r="J94" s="3">
+        <v>-280500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-265100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-301100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-75200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4378,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4425,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4472,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4519,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4566,145 +4809,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E100" s="3">
-        <v>-39900</v>
+        <v>-3200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2500</v>
+        <v>-38900</v>
       </c>
       <c r="G100" s="3">
         <v>-2400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1500</v>
+        <v>-2300</v>
       </c>
       <c r="I100" s="3">
-        <v>1103500</v>
+        <v>-1400</v>
       </c>
       <c r="J100" s="3">
+        <v>1077400</v>
+      </c>
+      <c r="K100" s="3">
         <v>3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>798500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>412300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>195800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>800</v>
       </c>
       <c r="N101" s="3">
         <v>800</v>
       </c>
       <c r="O101" s="3">
+        <v>800</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-33800</v>
+        <v>-51300</v>
       </c>
       <c r="E102" s="3">
-        <v>-72200</v>
+        <v>-33000</v>
       </c>
       <c r="F102" s="3">
-        <v>-53700</v>
+        <v>-70500</v>
       </c>
       <c r="G102" s="3">
-        <v>-18000</v>
+        <v>-52500</v>
       </c>
       <c r="H102" s="3">
-        <v>-295200</v>
+        <v>-17600</v>
       </c>
       <c r="I102" s="3">
-        <v>797100</v>
+        <v>-288200</v>
       </c>
       <c r="J102" s="3">
+        <v>778200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-281300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>765100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-362500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>403900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>107400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-57900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>248700</v>
+        <v>282400</v>
       </c>
       <c r="E8" s="3">
-        <v>254700</v>
+        <v>248800</v>
       </c>
       <c r="F8" s="3">
-        <v>248000</v>
+        <v>254900</v>
       </c>
       <c r="G8" s="3">
-        <v>234800</v>
+        <v>248100</v>
       </c>
       <c r="H8" s="3">
-        <v>197900</v>
+        <v>234900</v>
       </c>
       <c r="I8" s="3">
-        <v>206100</v>
+        <v>198000</v>
       </c>
       <c r="J8" s="3">
+        <v>206300</v>
+      </c>
+      <c r="K8" s="3">
         <v>179800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>160300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>109700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>59400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>132200</v>
+        <v>163700</v>
       </c>
       <c r="E9" s="3">
-        <v>138600</v>
+        <v>132300</v>
       </c>
       <c r="F9" s="3">
-        <v>138000</v>
+        <v>138700</v>
       </c>
       <c r="G9" s="3">
+        <v>138100</v>
+      </c>
+      <c r="H9" s="3">
         <v>130100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>105400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>99500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>92200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E10" s="3">
         <v>116500</v>
       </c>
-      <c r="E10" s="3">
-        <v>116100</v>
-      </c>
       <c r="F10" s="3">
+        <v>116200</v>
+      </c>
+      <c r="G10" s="3">
         <v>110000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104700</v>
       </c>
-      <c r="H10" s="3">
-        <v>92500</v>
-      </c>
       <c r="I10" s="3">
+        <v>92600</v>
+      </c>
+      <c r="J10" s="3">
         <v>106700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>87700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45600</v>
+        <v>46000</v>
       </c>
       <c r="E12" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F12" s="3">
         <v>50500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>49400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>48100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>53400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,108 +1022,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E14" s="3">
         <v>36200</v>
       </c>
-      <c r="E14" s="3">
-        <v>1021000</v>
-      </c>
       <c r="F14" s="3">
+        <v>1021600</v>
+      </c>
+      <c r="G14" s="3">
         <v>17900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E15" s="3">
         <v>38300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>38900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>39100</v>
       </c>
-      <c r="G15" s="3">
-        <v>39300</v>
-      </c>
       <c r="H15" s="3">
+        <v>39400</v>
+      </c>
+      <c r="I15" s="3">
         <v>40500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>39500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>360500</v>
+        <v>361100</v>
       </c>
       <c r="E17" s="3">
-        <v>1367800</v>
+        <v>360700</v>
       </c>
       <c r="F17" s="3">
-        <v>365200</v>
+        <v>1368500</v>
       </c>
       <c r="G17" s="3">
-        <v>376300</v>
+        <v>365400</v>
       </c>
       <c r="H17" s="3">
-        <v>351600</v>
+        <v>376500</v>
       </c>
       <c r="I17" s="3">
-        <v>312200</v>
+        <v>351700</v>
       </c>
       <c r="J17" s="3">
+        <v>312300</v>
+      </c>
+      <c r="K17" s="3">
         <v>280800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>231000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>167200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-111900</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1113100</v>
-      </c>
       <c r="F18" s="3">
-        <v>-117200</v>
+        <v>-1113600</v>
       </c>
       <c r="G18" s="3">
-        <v>-141600</v>
+        <v>-117300</v>
       </c>
       <c r="H18" s="3">
-        <v>-153600</v>
+        <v>-141700</v>
       </c>
       <c r="I18" s="3">
-        <v>-106000</v>
+        <v>-153700</v>
       </c>
       <c r="J18" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-101000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-70800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-57400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-57700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,108 +1275,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E20" s="3">
         <v>13600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-60000</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1062400</v>
-      </c>
       <c r="F21" s="3">
+        <v>-1063000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-70900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-98600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-111000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-64200</v>
       </c>
       <c r="J21" s="3">
         <v>-64200</v>
       </c>
       <c r="K21" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-42400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-44300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1351,149 +1391,158 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>900</v>
       </c>
       <c r="N22" s="3">
         <v>900</v>
       </c>
       <c r="O22" s="3">
+        <v>900</v>
+      </c>
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-98800</v>
+        <v>-64700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1101900</v>
+        <v>-98900</v>
       </c>
       <c r="F23" s="3">
+        <v>-1102400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-110700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-138900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-152300</v>
+        <v>-139000</v>
       </c>
       <c r="I23" s="3">
+        <v>-152400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-104700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-70400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-20200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-100500</v>
+        <v>-65800</v>
       </c>
       <c r="E26" s="3">
-        <v>-1100000</v>
+        <v>-100600</v>
       </c>
       <c r="F26" s="3">
-        <v>-107900</v>
+        <v>-1100600</v>
       </c>
       <c r="G26" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-136100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-154600</v>
-      </c>
       <c r="I26" s="3">
-        <v>-88400</v>
+        <v>-154700</v>
       </c>
       <c r="J26" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-79800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-68200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-55100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-100500</v>
+        <v>-65800</v>
       </c>
       <c r="E27" s="3">
-        <v>-1100000</v>
+        <v>-100600</v>
       </c>
       <c r="F27" s="3">
-        <v>-107900</v>
+        <v>-1100600</v>
       </c>
       <c r="G27" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-136100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-154600</v>
-      </c>
       <c r="I27" s="3">
-        <v>-88400</v>
+        <v>-154700</v>
       </c>
       <c r="J27" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-79800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-68200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-55100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-100500</v>
+        <v>-65800</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100000</v>
+        <v>-100600</v>
       </c>
       <c r="F33" s="3">
-        <v>-107900</v>
+        <v>-1100600</v>
       </c>
       <c r="G33" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-136100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-154600</v>
-      </c>
       <c r="I33" s="3">
-        <v>-88400</v>
+        <v>-154700</v>
       </c>
       <c r="J33" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-79800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-68200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-55100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-100500</v>
+        <v>-65800</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100000</v>
+        <v>-100600</v>
       </c>
       <c r="F35" s="3">
-        <v>-107900</v>
+        <v>-1100600</v>
       </c>
       <c r="G35" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-136100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-154600</v>
-      </c>
       <c r="I35" s="3">
-        <v>-88400</v>
+        <v>-154700</v>
       </c>
       <c r="J35" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-79800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-68200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-55100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,58 +2223,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1080200</v>
+        <v>1053900</v>
       </c>
       <c r="E41" s="3">
-        <v>1131500</v>
+        <v>1080800</v>
       </c>
       <c r="F41" s="3">
-        <v>1164500</v>
+        <v>1132000</v>
       </c>
       <c r="G41" s="3">
-        <v>1235000</v>
+        <v>1165100</v>
       </c>
       <c r="H41" s="3">
-        <v>1287400</v>
+        <v>1235600</v>
       </c>
       <c r="I41" s="3">
-        <v>1305000</v>
+        <v>1288100</v>
       </c>
       <c r="J41" s="3">
+        <v>1305700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1593200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>834800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1075000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>669300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>268700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>162500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2237,244 +2327,259 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E43" s="3">
         <v>113900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>102800</v>
       </c>
-      <c r="F43" s="3">
-        <v>85800</v>
-      </c>
       <c r="G43" s="3">
+        <v>85900</v>
+      </c>
+      <c r="H43" s="3">
         <v>69000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>61800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>68500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E44" s="3">
         <v>17300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>500</v>
       </c>
       <c r="R44" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E45" s="3">
         <v>50000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1261300</v>
+        <v>1237500</v>
       </c>
       <c r="E46" s="3">
-        <v>1283500</v>
+        <v>1262000</v>
       </c>
       <c r="F46" s="3">
-        <v>1297700</v>
+        <v>1284200</v>
       </c>
       <c r="G46" s="3">
-        <v>1356100</v>
+        <v>1298300</v>
       </c>
       <c r="H46" s="3">
-        <v>1407400</v>
+        <v>1356800</v>
       </c>
       <c r="I46" s="3">
-        <v>1426900</v>
+        <v>1408100</v>
       </c>
       <c r="J46" s="3">
+        <v>1427600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1666500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>913700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1142200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>360300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>703700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>292100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>297100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>186200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E47" s="3">
         <v>16500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>15000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12400</v>
       </c>
-      <c r="H47" s="3">
-        <v>7500</v>
-      </c>
       <c r="I47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J47" s="3">
         <v>5800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -2487,108 +2592,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>54600</v>
+        <v>51400</v>
       </c>
       <c r="E48" s="3">
+        <v>54700</v>
+      </c>
+      <c r="F48" s="3">
         <v>56600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>56100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>56700</v>
       </c>
-      <c r="I48" s="3">
-        <v>58300</v>
-      </c>
       <c r="J48" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K48" s="3">
         <v>50100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2243800</v>
+        <v>2214200</v>
       </c>
       <c r="E49" s="3">
-        <v>2274200</v>
+        <v>2245000</v>
       </c>
       <c r="F49" s="3">
-        <v>3305100</v>
+        <v>2275400</v>
       </c>
       <c r="G49" s="3">
-        <v>3347900</v>
+        <v>3306800</v>
       </c>
       <c r="H49" s="3">
-        <v>3393800</v>
+        <v>3349600</v>
       </c>
       <c r="I49" s="3">
-        <v>3428000</v>
+        <v>3395600</v>
       </c>
       <c r="J49" s="3">
+        <v>3429800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2638000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2178300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1606700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1585400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>279000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>276600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>266800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>138100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E52" s="3">
         <v>26500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3602800</v>
+        <v>3550600</v>
       </c>
       <c r="E54" s="3">
-        <v>3654000</v>
+        <v>3604700</v>
       </c>
       <c r="F54" s="3">
-        <v>4695000</v>
+        <v>3655900</v>
       </c>
       <c r="G54" s="3">
-        <v>4796100</v>
+        <v>4697400</v>
       </c>
       <c r="H54" s="3">
-        <v>4887000</v>
+        <v>4798600</v>
       </c>
       <c r="I54" s="3">
-        <v>4941600</v>
+        <v>4889500</v>
       </c>
       <c r="J54" s="3">
+        <v>4944200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4377700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3160500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2803900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1999000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1020100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>614100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>609400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>356800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E57" s="3">
         <v>49900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
-        <v>9300</v>
-      </c>
       <c r="F58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>144300</v>
+        <v>130200</v>
       </c>
       <c r="E59" s="3">
-        <v>136600</v>
+        <v>144400</v>
       </c>
       <c r="F59" s="3">
+        <v>136700</v>
+      </c>
+      <c r="G59" s="3">
         <v>143200</v>
       </c>
-      <c r="G59" s="3">
-        <v>144500</v>
-      </c>
       <c r="H59" s="3">
-        <v>149800</v>
+        <v>144600</v>
       </c>
       <c r="I59" s="3">
+        <v>149900</v>
+      </c>
+      <c r="J59" s="3">
         <v>142600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>114800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>111900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>70300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>203100</v>
+        <v>186500</v>
       </c>
       <c r="E60" s="3">
-        <v>195700</v>
+        <v>203200</v>
       </c>
       <c r="F60" s="3">
-        <v>202300</v>
+        <v>195800</v>
       </c>
       <c r="G60" s="3">
-        <v>244400</v>
+        <v>202400</v>
       </c>
       <c r="H60" s="3">
-        <v>213100</v>
+        <v>244500</v>
       </c>
       <c r="I60" s="3">
-        <v>196600</v>
+        <v>213200</v>
       </c>
       <c r="J60" s="3">
+        <v>196700</v>
+      </c>
+      <c r="K60" s="3">
         <v>195100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>151900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>97200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>88400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>90200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>82800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E61" s="3">
         <v>25100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26100</v>
       </c>
-      <c r="G61" s="3">
-        <v>28100</v>
-      </c>
       <c r="H61" s="3">
+        <v>28200</v>
+      </c>
+      <c r="I61" s="3">
         <v>71400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>73900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>71300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>73600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>64700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>56900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>56400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>55100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9900</v>
       </c>
-      <c r="H62" s="3">
-        <v>13400</v>
-      </c>
       <c r="I62" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J62" s="3">
         <v>10200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>231200</v>
+        <v>213700</v>
       </c>
       <c r="E66" s="3">
-        <v>225600</v>
+        <v>231400</v>
       </c>
       <c r="F66" s="3">
-        <v>234000</v>
+        <v>225700</v>
       </c>
       <c r="G66" s="3">
-        <v>282400</v>
+        <v>234100</v>
       </c>
       <c r="H66" s="3">
-        <v>297900</v>
+        <v>282600</v>
       </c>
       <c r="I66" s="3">
-        <v>280700</v>
+        <v>298100</v>
       </c>
       <c r="J66" s="3">
+        <v>280800</v>
+      </c>
+      <c r="K66" s="3">
         <v>284700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>279900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>227800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>231900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>168400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>171100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>109900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2694900</v>
+        <v>-2762000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2594300</v>
+        <v>-2696300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1494400</v>
+        <v>-2595700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1386400</v>
+        <v>-1495100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1250400</v>
+        <v>-1387100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1095800</v>
+        <v>-1251000</v>
       </c>
       <c r="J72" s="3">
+        <v>-1096300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1007300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-950000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-849400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-769900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-721400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-696000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-654100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-634700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3371600</v>
+        <v>3336900</v>
       </c>
       <c r="E76" s="3">
-        <v>3428400</v>
+        <v>3373300</v>
       </c>
       <c r="F76" s="3">
-        <v>4461000</v>
+        <v>3430100</v>
       </c>
       <c r="G76" s="3">
-        <v>4513600</v>
+        <v>4463300</v>
       </c>
       <c r="H76" s="3">
-        <v>4589000</v>
+        <v>4516000</v>
       </c>
       <c r="I76" s="3">
-        <v>4660900</v>
+        <v>4591400</v>
       </c>
       <c r="J76" s="3">
+        <v>4663300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4093000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2880700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2576100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1767100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>850600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>445600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>438400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>246800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-100500</v>
+        <v>-65800</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100000</v>
+        <v>-100600</v>
       </c>
       <c r="F81" s="3">
-        <v>-107900</v>
+        <v>-1100600</v>
       </c>
       <c r="G81" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-136100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-154600</v>
-      </c>
       <c r="I81" s="3">
-        <v>-88400</v>
+        <v>-154700</v>
       </c>
       <c r="J81" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-79800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-68200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-55100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E83" s="3">
         <v>38300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39100</v>
       </c>
-      <c r="G83" s="3">
-        <v>39300</v>
-      </c>
       <c r="H83" s="3">
+        <v>39400</v>
+      </c>
+      <c r="I83" s="3">
         <v>40500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-56100</v>
+        <v>-35200</v>
       </c>
       <c r="E89" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-35700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-65100</v>
-      </c>
       <c r="J89" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-17600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-32100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-70000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1700</v>
       </c>
       <c r="Q91" s="3">
         <v>-1700</v>
       </c>
       <c r="R91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E94" s="3">
         <v>8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-221700</v>
-      </c>
       <c r="J94" s="3">
+        <v>-221900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-280500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-265100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-301100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-3200</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
         <v>-3200</v>
       </c>
       <c r="F100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-38900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1077400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>798500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>412300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>195800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>900</v>
-      </c>
-      <c r="N101" s="3">
-        <v>800</v>
       </c>
       <c r="O101" s="3">
         <v>800</v>
       </c>
       <c r="P101" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-51300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17600</v>
       </c>
-      <c r="I102" s="3">
-        <v>-288200</v>
-      </c>
       <c r="J102" s="3">
+        <v>-288400</v>
+      </c>
+      <c r="K102" s="3">
         <v>778200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-281300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>765100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-362500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>403900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>107400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-57900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LSPD_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>282400</v>
+        <v>316800</v>
       </c>
       <c r="E8" s="3">
-        <v>248800</v>
+        <v>287600</v>
       </c>
       <c r="F8" s="3">
-        <v>254900</v>
+        <v>253400</v>
       </c>
       <c r="G8" s="3">
-        <v>248100</v>
+        <v>259600</v>
       </c>
       <c r="H8" s="3">
-        <v>234900</v>
+        <v>252700</v>
       </c>
       <c r="I8" s="3">
-        <v>198000</v>
+        <v>239200</v>
       </c>
       <c r="J8" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K8" s="3">
         <v>206300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>179800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>160300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>109700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>59400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>47200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>46200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>163700</v>
+        <v>184500</v>
       </c>
       <c r="E9" s="3">
-        <v>132300</v>
+        <v>166700</v>
       </c>
       <c r="F9" s="3">
-        <v>138700</v>
+        <v>134700</v>
       </c>
       <c r="G9" s="3">
-        <v>138100</v>
+        <v>141300</v>
       </c>
       <c r="H9" s="3">
-        <v>130100</v>
+        <v>140600</v>
       </c>
       <c r="I9" s="3">
-        <v>105400</v>
+        <v>132500</v>
       </c>
       <c r="J9" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K9" s="3">
         <v>99500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>92200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>118800</v>
+        <v>132300</v>
       </c>
       <c r="E10" s="3">
-        <v>116500</v>
+        <v>120900</v>
       </c>
       <c r="F10" s="3">
-        <v>116200</v>
+        <v>118700</v>
       </c>
       <c r="G10" s="3">
-        <v>110000</v>
+        <v>118300</v>
       </c>
       <c r="H10" s="3">
-        <v>104700</v>
+        <v>112100</v>
       </c>
       <c r="I10" s="3">
-        <v>92600</v>
+        <v>106700</v>
       </c>
       <c r="J10" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K10" s="3">
         <v>106700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>87700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="E12" s="3">
-        <v>45700</v>
+        <v>46800</v>
       </c>
       <c r="F12" s="3">
-        <v>50500</v>
+        <v>46500</v>
       </c>
       <c r="G12" s="3">
-        <v>49400</v>
+        <v>51500</v>
       </c>
       <c r="H12" s="3">
-        <v>48100</v>
+        <v>50300</v>
       </c>
       <c r="I12" s="3">
-        <v>53400</v>
+        <v>49000</v>
       </c>
       <c r="J12" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K12" s="3">
         <v>43200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,114 +1042,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
-        <v>36200</v>
-      </c>
       <c r="F14" s="3">
-        <v>1021600</v>
+        <v>36900</v>
       </c>
       <c r="G14" s="3">
-        <v>17900</v>
+        <v>1040300</v>
       </c>
       <c r="H14" s="3">
-        <v>24700</v>
+        <v>18200</v>
       </c>
       <c r="I14" s="3">
-        <v>22000</v>
+        <v>25200</v>
       </c>
       <c r="J14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K14" s="3">
         <v>25700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>38100</v>
+        <v>37300</v>
       </c>
       <c r="E15" s="3">
-        <v>38300</v>
+        <v>38800</v>
       </c>
       <c r="F15" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="G15" s="3">
-        <v>39100</v>
+        <v>39600</v>
       </c>
       <c r="H15" s="3">
-        <v>39400</v>
+        <v>39800</v>
       </c>
       <c r="I15" s="3">
-        <v>40500</v>
+        <v>40100</v>
       </c>
       <c r="J15" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K15" s="3">
         <v>39500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>27000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>361100</v>
+        <v>388200</v>
       </c>
       <c r="E17" s="3">
-        <v>360700</v>
+        <v>367700</v>
       </c>
       <c r="F17" s="3">
-        <v>1368500</v>
+        <v>367400</v>
       </c>
       <c r="G17" s="3">
-        <v>365400</v>
+        <v>1393600</v>
       </c>
       <c r="H17" s="3">
-        <v>376500</v>
+        <v>372100</v>
       </c>
       <c r="I17" s="3">
-        <v>351700</v>
+        <v>383500</v>
       </c>
       <c r="J17" s="3">
+        <v>358200</v>
+      </c>
+      <c r="K17" s="3">
         <v>312300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>280800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>231000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>167200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>86300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>75100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>72300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-78600</v>
+        <v>-71500</v>
       </c>
       <c r="E18" s="3">
-        <v>-111900</v>
+        <v>-80100</v>
       </c>
       <c r="F18" s="3">
-        <v>-1113600</v>
+        <v>-114000</v>
       </c>
       <c r="G18" s="3">
-        <v>-117300</v>
+        <v>-1134100</v>
       </c>
       <c r="H18" s="3">
-        <v>-141700</v>
+        <v>-119400</v>
       </c>
       <c r="I18" s="3">
-        <v>-153700</v>
+        <v>-144300</v>
       </c>
       <c r="J18" s="3">
+        <v>-156500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-106100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-101000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-70800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-57400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-57700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,273 +1309,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>14500</v>
+        <v>15700</v>
       </c>
       <c r="E20" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="F20" s="3">
-        <v>11800</v>
+        <v>13800</v>
       </c>
       <c r="G20" s="3">
-        <v>7300</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="3">
-        <v>3600</v>
+        <v>7400</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="J20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-26100</v>
+        <v>-18500</v>
       </c>
       <c r="E21" s="3">
-        <v>-60000</v>
+        <v>-26500</v>
       </c>
       <c r="F21" s="3">
-        <v>-1063000</v>
+        <v>-61100</v>
       </c>
       <c r="G21" s="3">
-        <v>-70900</v>
+        <v>-1082500</v>
       </c>
       <c r="H21" s="3">
-        <v>-98600</v>
+        <v>-72200</v>
       </c>
       <c r="I21" s="3">
-        <v>-111000</v>
+        <v>-100500</v>
       </c>
       <c r="J21" s="3">
-        <v>-64200</v>
+        <v>-113100</v>
       </c>
       <c r="K21" s="3">
         <v>-64200</v>
       </c>
       <c r="L21" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-42400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-35600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-44300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>900</v>
       </c>
       <c r="O22" s="3">
         <v>900</v>
       </c>
       <c r="P22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-64700</v>
+        <v>-56700</v>
       </c>
       <c r="E23" s="3">
-        <v>-98900</v>
+        <v>-65900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1102400</v>
+        <v>-100700</v>
       </c>
       <c r="G23" s="3">
-        <v>-110700</v>
+        <v>-1122700</v>
       </c>
       <c r="H23" s="3">
-        <v>-139000</v>
+        <v>-112700</v>
       </c>
       <c r="I23" s="3">
-        <v>-152400</v>
+        <v>-141500</v>
       </c>
       <c r="J23" s="3">
+        <v>-155200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-104700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-70400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-57700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
-        <v>1700</v>
-      </c>
       <c r="F24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-2700</v>
       </c>
       <c r="H24" s="3">
         <v>-2800</v>
       </c>
       <c r="I24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-65800</v>
+        <v>-58400</v>
       </c>
       <c r="E26" s="3">
-        <v>-100600</v>
+        <v>-67000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1100600</v>
+        <v>-102400</v>
       </c>
       <c r="G26" s="3">
-        <v>-108000</v>
+        <v>-1120800</v>
       </c>
       <c r="H26" s="3">
-        <v>-136100</v>
+        <v>-110000</v>
       </c>
       <c r="I26" s="3">
-        <v>-154700</v>
+        <v>-138600</v>
       </c>
       <c r="J26" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-88500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-79800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-68200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-56000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-55100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-65800</v>
+        <v>-58400</v>
       </c>
       <c r="E27" s="3">
-        <v>-100600</v>
+        <v>-67000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1100600</v>
+        <v>-102400</v>
       </c>
       <c r="G27" s="3">
-        <v>-108000</v>
+        <v>-1120800</v>
       </c>
       <c r="H27" s="3">
-        <v>-136100</v>
+        <v>-110000</v>
       </c>
       <c r="I27" s="3">
-        <v>-154700</v>
+        <v>-138600</v>
       </c>
       <c r="J27" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-88500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-79800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-68200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-55100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-14500</v>
+        <v>-15700</v>
       </c>
       <c r="E32" s="3">
-        <v>-13600</v>
+        <v>-14800</v>
       </c>
       <c r="F32" s="3">
-        <v>-11800</v>
+        <v>-13800</v>
       </c>
       <c r="G32" s="3">
-        <v>-7300</v>
+        <v>-12000</v>
       </c>
       <c r="H32" s="3">
-        <v>-3600</v>
+        <v>-7400</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-3700</v>
       </c>
       <c r="J32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-65800</v>
+        <v>-58400</v>
       </c>
       <c r="E33" s="3">
-        <v>-100600</v>
+        <v>-67000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1100600</v>
+        <v>-102400</v>
       </c>
       <c r="G33" s="3">
-        <v>-108000</v>
+        <v>-1120800</v>
       </c>
       <c r="H33" s="3">
-        <v>-136100</v>
+        <v>-110000</v>
       </c>
       <c r="I33" s="3">
-        <v>-154700</v>
+        <v>-138600</v>
       </c>
       <c r="J33" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-88500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-79800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-68200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-56000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-55100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-65800</v>
+        <v>-58400</v>
       </c>
       <c r="E35" s="3">
-        <v>-100600</v>
+        <v>-67000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1100600</v>
+        <v>-102400</v>
       </c>
       <c r="G35" s="3">
-        <v>-108000</v>
+        <v>-1120800</v>
       </c>
       <c r="H35" s="3">
-        <v>-136100</v>
+        <v>-110000</v>
       </c>
       <c r="I35" s="3">
-        <v>-154700</v>
+        <v>-138600</v>
       </c>
       <c r="J35" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-88500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-79800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-68200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-56000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-55100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,61 +2310,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1053900</v>
+        <v>1047400</v>
       </c>
       <c r="E41" s="3">
-        <v>1080800</v>
+        <v>1073300</v>
       </c>
       <c r="F41" s="3">
-        <v>1132000</v>
+        <v>1100600</v>
       </c>
       <c r="G41" s="3">
-        <v>1165100</v>
+        <v>1152800</v>
       </c>
       <c r="H41" s="3">
-        <v>1235600</v>
+        <v>1186500</v>
       </c>
       <c r="I41" s="3">
-        <v>1288100</v>
+        <v>1258300</v>
       </c>
       <c r="J41" s="3">
+        <v>1311800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1305700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1593200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>834800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1075000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>669300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>268700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>162500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2330,259 +2420,274 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>110700</v>
+        <v>138200</v>
       </c>
       <c r="E43" s="3">
-        <v>113900</v>
+        <v>112700</v>
       </c>
       <c r="F43" s="3">
-        <v>102800</v>
+        <v>116000</v>
       </c>
       <c r="G43" s="3">
-        <v>85900</v>
+        <v>104700</v>
       </c>
       <c r="H43" s="3">
-        <v>69000</v>
+        <v>87400</v>
       </c>
       <c r="I43" s="3">
-        <v>61800</v>
+        <v>70300</v>
       </c>
       <c r="J43" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K43" s="3">
         <v>68500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>19800</v>
+        <v>24800</v>
       </c>
       <c r="E44" s="3">
-        <v>17300</v>
+        <v>20100</v>
       </c>
       <c r="F44" s="3">
-        <v>13700</v>
+        <v>17700</v>
       </c>
       <c r="G44" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="H44" s="3">
-        <v>11600</v>
+        <v>13800</v>
       </c>
       <c r="I44" s="3">
-        <v>10200</v>
+        <v>11800</v>
       </c>
       <c r="J44" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K44" s="3">
         <v>6000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>500</v>
       </c>
       <c r="S44" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>53100</v>
+        <v>53000</v>
       </c>
       <c r="E45" s="3">
-        <v>50000</v>
+        <v>54100</v>
       </c>
       <c r="F45" s="3">
-        <v>35600</v>
+        <v>50900</v>
       </c>
       <c r="G45" s="3">
-        <v>33900</v>
+        <v>36300</v>
       </c>
       <c r="H45" s="3">
-        <v>40600</v>
+        <v>34500</v>
       </c>
       <c r="I45" s="3">
-        <v>48000</v>
+        <v>41300</v>
       </c>
       <c r="J45" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K45" s="3">
         <v>47400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1237500</v>
+        <v>1263500</v>
       </c>
       <c r="E46" s="3">
-        <v>1262000</v>
+        <v>1260200</v>
       </c>
       <c r="F46" s="3">
-        <v>1284200</v>
+        <v>1285200</v>
       </c>
       <c r="G46" s="3">
-        <v>1298300</v>
+        <v>1307800</v>
       </c>
       <c r="H46" s="3">
-        <v>1356800</v>
+        <v>1322200</v>
       </c>
       <c r="I46" s="3">
-        <v>1408100</v>
+        <v>1381700</v>
       </c>
       <c r="J46" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1427600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1666500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>913700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1142200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>360300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>703700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>292100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>297100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>186200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>19600</v>
+        <v>25400</v>
       </c>
       <c r="E47" s="3">
-        <v>16500</v>
+        <v>19900</v>
       </c>
       <c r="F47" s="3">
-        <v>15000</v>
+        <v>16800</v>
       </c>
       <c r="G47" s="3">
-        <v>13200</v>
+        <v>15200</v>
       </c>
       <c r="H47" s="3">
-        <v>12400</v>
+        <v>13500</v>
       </c>
       <c r="I47" s="3">
-        <v>7600</v>
+        <v>12600</v>
       </c>
       <c r="J47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K47" s="3">
         <v>5800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1700</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
@@ -2595,114 +2700,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>51400</v>
+        <v>51300</v>
       </c>
       <c r="E48" s="3">
-        <v>54700</v>
+        <v>52400</v>
       </c>
       <c r="F48" s="3">
-        <v>56600</v>
+        <v>55700</v>
       </c>
       <c r="G48" s="3">
-        <v>56300</v>
+        <v>57600</v>
       </c>
       <c r="H48" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="I48" s="3">
-        <v>56700</v>
+        <v>57200</v>
       </c>
       <c r="J48" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K48" s="3">
         <v>58400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>38800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2214200</v>
+        <v>2221800</v>
       </c>
       <c r="E49" s="3">
-        <v>2245000</v>
+        <v>2254800</v>
       </c>
       <c r="F49" s="3">
-        <v>2275400</v>
+        <v>2286200</v>
       </c>
       <c r="G49" s="3">
-        <v>3306800</v>
+        <v>2317200</v>
       </c>
       <c r="H49" s="3">
-        <v>3349600</v>
+        <v>3367500</v>
       </c>
       <c r="I49" s="3">
-        <v>3395600</v>
+        <v>3411200</v>
       </c>
       <c r="J49" s="3">
+        <v>3457900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3429800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2638000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2178300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1606700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1585400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>279000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>276600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>266800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>138100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>28000</v>
+        <v>29300</v>
       </c>
       <c r="E52" s="3">
-        <v>26500</v>
+        <v>28500</v>
       </c>
       <c r="F52" s="3">
-        <v>24700</v>
+        <v>27000</v>
       </c>
       <c r="G52" s="3">
-        <v>22700</v>
+        <v>25200</v>
       </c>
       <c r="H52" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="I52" s="3">
-        <v>21600</v>
+        <v>24000</v>
       </c>
       <c r="J52" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K52" s="3">
         <v>22500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3550600</v>
+        <v>3591200</v>
       </c>
       <c r="E54" s="3">
-        <v>3604700</v>
+        <v>3615800</v>
       </c>
       <c r="F54" s="3">
-        <v>3655900</v>
+        <v>3670800</v>
       </c>
       <c r="G54" s="3">
-        <v>4697400</v>
+        <v>3723000</v>
       </c>
       <c r="H54" s="3">
-        <v>4798600</v>
+        <v>4783700</v>
       </c>
       <c r="I54" s="3">
-        <v>4889500</v>
+        <v>4886700</v>
       </c>
       <c r="J54" s="3">
+        <v>4979300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4944200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4377700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3160500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2803900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1999000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1020100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>614100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>609400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>356800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,273 +3138,289 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>47200</v>
+        <v>58400</v>
       </c>
       <c r="E57" s="3">
-        <v>49900</v>
+        <v>48000</v>
       </c>
       <c r="F57" s="3">
-        <v>49700</v>
+        <v>50800</v>
       </c>
       <c r="G57" s="3">
-        <v>50000</v>
+        <v>50600</v>
       </c>
       <c r="H57" s="3">
-        <v>49700</v>
+        <v>50900</v>
       </c>
       <c r="I57" s="3">
-        <v>53000</v>
+        <v>50700</v>
       </c>
       <c r="J57" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K57" s="3">
         <v>43900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F58" s="3">
         <v>9100</v>
       </c>
-      <c r="E58" s="3">
-        <v>8900</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H58" s="3">
         <v>9400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
+        <v>51200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="H58" s="3">
-        <v>50200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>9600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>9200</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>130200</v>
+        <v>129500</v>
       </c>
       <c r="E59" s="3">
-        <v>144400</v>
+        <v>132600</v>
       </c>
       <c r="F59" s="3">
-        <v>136700</v>
+        <v>147000</v>
       </c>
       <c r="G59" s="3">
-        <v>143200</v>
+        <v>139200</v>
       </c>
       <c r="H59" s="3">
-        <v>144600</v>
+        <v>145900</v>
       </c>
       <c r="I59" s="3">
-        <v>149900</v>
+        <v>147200</v>
       </c>
       <c r="J59" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K59" s="3">
         <v>142600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>114800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>111900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>70300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>67100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>186500</v>
+        <v>197000</v>
       </c>
       <c r="E60" s="3">
-        <v>203200</v>
+        <v>189900</v>
       </c>
       <c r="F60" s="3">
-        <v>195800</v>
+        <v>207000</v>
       </c>
       <c r="G60" s="3">
-        <v>202400</v>
+        <v>199400</v>
       </c>
       <c r="H60" s="3">
-        <v>244500</v>
+        <v>206200</v>
       </c>
       <c r="I60" s="3">
-        <v>213200</v>
+        <v>249000</v>
       </c>
       <c r="J60" s="3">
+        <v>217100</v>
+      </c>
+      <c r="K60" s="3">
         <v>196700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>186200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>151000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>151900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>88400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>90200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>82800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>76300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>23900</v>
+        <v>23300</v>
       </c>
       <c r="E61" s="3">
-        <v>25100</v>
+        <v>24300</v>
       </c>
       <c r="F61" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="G61" s="3">
-        <v>26100</v>
+        <v>26800</v>
       </c>
       <c r="H61" s="3">
-        <v>28200</v>
+        <v>26600</v>
       </c>
       <c r="I61" s="3">
-        <v>71400</v>
+        <v>28700</v>
       </c>
       <c r="J61" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K61" s="3">
         <v>73900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>71300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>73600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>67000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>64700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>56900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>56400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>55100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3282,52 +3428,55 @@
         <v>3300</v>
       </c>
       <c r="E62" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
-        <v>5600</v>
-      </c>
       <c r="H62" s="3">
-        <v>9900</v>
+        <v>5700</v>
       </c>
       <c r="I62" s="3">
-        <v>13500</v>
+        <v>10100</v>
       </c>
       <c r="J62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K62" s="3">
         <v>10200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>213700</v>
+        <v>223700</v>
       </c>
       <c r="E66" s="3">
-        <v>231400</v>
+        <v>217700</v>
       </c>
       <c r="F66" s="3">
-        <v>225700</v>
+        <v>235600</v>
       </c>
       <c r="G66" s="3">
-        <v>234100</v>
+        <v>229900</v>
       </c>
       <c r="H66" s="3">
-        <v>282600</v>
+        <v>238400</v>
       </c>
       <c r="I66" s="3">
-        <v>298100</v>
+        <v>287800</v>
       </c>
       <c r="J66" s="3">
+        <v>303600</v>
+      </c>
+      <c r="K66" s="3">
         <v>280800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>284700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>279900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>227800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>231900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>169400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>168400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>171100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>109900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2762000</v>
+        <v>-2871200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2696300</v>
+        <v>-2812800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2595700</v>
+        <v>-2745800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1495100</v>
+        <v>-2643300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1387100</v>
+        <v>-1522600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1251000</v>
+        <v>-1412600</v>
       </c>
       <c r="J72" s="3">
+        <v>-1274000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1096300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1007300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-950000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-849400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-769900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-721400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-696000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-654100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-634700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-614500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3336900</v>
+        <v>3367600</v>
       </c>
       <c r="E76" s="3">
-        <v>3373300</v>
+        <v>3398200</v>
       </c>
       <c r="F76" s="3">
-        <v>3430100</v>
+        <v>3435200</v>
       </c>
       <c r="G76" s="3">
-        <v>4463300</v>
+        <v>3493100</v>
       </c>
       <c r="H76" s="3">
-        <v>4516000</v>
+        <v>4545200</v>
       </c>
       <c r="I76" s="3">
-        <v>4591400</v>
+        <v>4598900</v>
       </c>
       <c r="J76" s="3">
+        <v>4675700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4663300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4093000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2880700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2576100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1767100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>850600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>445600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>438400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>246800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>250600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-65800</v>
+        <v>-58400</v>
       </c>
       <c r="E81" s="3">
-        <v>-100600</v>
+        <v>-67000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1100600</v>
+        <v>-102400</v>
       </c>
       <c r="G81" s="3">
-        <v>-108000</v>
+        <v>-1120800</v>
       </c>
       <c r="H81" s="3">
-        <v>-136100</v>
+        <v>-110000</v>
       </c>
       <c r="I81" s="3">
-        <v>-154700</v>
+        <v>-138600</v>
       </c>
       <c r="J81" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-88500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-79800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-68200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-56000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-55100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>38100</v>
+        <v>37300</v>
       </c>
       <c r="E83" s="3">
-        <v>38300</v>
+        <v>38800</v>
       </c>
       <c r="F83" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="G83" s="3">
-        <v>39100</v>
+        <v>39600</v>
       </c>
       <c r="H83" s="3">
-        <v>39400</v>
+        <v>39800</v>
       </c>
       <c r="I83" s="3">
-        <v>40500</v>
+        <v>40100</v>
       </c>
       <c r="J83" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K83" s="3">
         <v>39500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-35200</v>
+        <v>-34200</v>
       </c>
       <c r="E89" s="3">
-        <v>-56200</v>
+        <v>-35900</v>
       </c>
       <c r="F89" s="3">
-        <v>-35700</v>
+        <v>-57200</v>
       </c>
       <c r="G89" s="3">
-        <v>-32200</v>
+        <v>-36300</v>
       </c>
       <c r="H89" s="3">
-        <v>-45100</v>
+        <v>-32800</v>
       </c>
       <c r="I89" s="3">
-        <v>-15300</v>
+        <v>-46000</v>
       </c>
       <c r="J89" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-65200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-32100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-70000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1700</v>
       </c>
       <c r="R91" s="3">
         <v>-1700</v>
       </c>
       <c r="S91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>9600</v>
+        <v>10800</v>
       </c>
       <c r="E94" s="3">
-        <v>8000</v>
+        <v>9800</v>
       </c>
       <c r="F94" s="3">
-        <v>4300</v>
+        <v>8200</v>
       </c>
       <c r="G94" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H94" s="3">
         <v>2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-221900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-280500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-265100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-301100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-75200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3200</v>
+        <v>-1300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G100" s="3">
-        <v>-38900</v>
+        <v>-3300</v>
       </c>
       <c r="H100" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1077400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>798500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>412300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>195800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>800</v>
       </c>
       <c r="P101" s="3">
         <v>800</v>
       </c>
       <c r="Q101" s="3">
+        <v>800</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-26800</v>
+        <v>-25800</v>
       </c>
       <c r="E102" s="3">
-        <v>-51300</v>
+        <v>-27300</v>
       </c>
       <c r="F102" s="3">
-        <v>-33000</v>
+        <v>-52200</v>
       </c>
       <c r="G102" s="3">
-        <v>-70500</v>
+        <v>-33600</v>
       </c>
       <c r="H102" s="3">
-        <v>-52500</v>
+        <v>-71800</v>
       </c>
       <c r="I102" s="3">
-        <v>-17600</v>
+        <v>-53500</v>
       </c>
       <c r="J102" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-288400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>778200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-281300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>765100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-362500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>403900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>107400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-57900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25100</v>
       </c>
     </row>
